--- a/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,34 +656,34 @@
         <v>1.000519291939382</v>
       </c>
       <c r="D3">
-        <v>0.9992474495261399</v>
+        <v>1.000519291939382</v>
       </c>
       <c r="E3">
+        <v>0.9998376993696431</v>
+      </c>
+      <c r="F3">
+        <v>1.000278303024446</v>
+      </c>
+      <c r="G3">
+        <v>1.000193635630451</v>
+      </c>
+      <c r="H3">
+        <v>0.9995089757457912</v>
+      </c>
+      <c r="I3">
+        <v>0.9992474495261396</v>
+      </c>
+      <c r="J3">
+        <v>0.9998431576993552</v>
+      </c>
+      <c r="K3">
         <v>1.000178242900643</v>
       </c>
-      <c r="F3">
+      <c r="L3">
+        <v>0.9992474495261396</v>
+      </c>
+      <c r="M3">
         <v>1.000519291939382</v>
-      </c>
-      <c r="G3">
-        <v>0.9998376993696431</v>
-      </c>
-      <c r="H3">
-        <v>1.000278303024446</v>
-      </c>
-      <c r="I3">
-        <v>1.000519291939382</v>
-      </c>
-      <c r="J3">
-        <v>0.9992474495261399</v>
-      </c>
-      <c r="K3">
-        <v>0.9998431576993552</v>
-      </c>
-      <c r="L3">
-        <v>1.000193635630451</v>
-      </c>
-      <c r="M3">
-        <v>0.9995089757457912</v>
       </c>
       <c r="N3">
         <v>1.000519291939382</v>
@@ -740,22 +692,22 @@
         <v>1.000178242900643</v>
       </c>
       <c r="P3">
-        <v>0.9997128462133912</v>
+        <v>0.9997128462133911</v>
       </c>
       <c r="Q3">
         <v>1.000007971135143</v>
       </c>
       <c r="R3">
-        <v>0.9999816614553881</v>
+        <v>0.9999816614553879</v>
       </c>
       <c r="S3">
-        <v>0.9997544639321418</v>
+        <v>0.9997544639321417</v>
       </c>
       <c r="T3">
-        <v>0.9999816614553881</v>
+        <v>0.9999816614553879</v>
       </c>
       <c r="U3">
-        <v>0.9999456709339518</v>
+        <v>0.9999456709339517</v>
       </c>
       <c r="V3">
         <v>1.000060395135038</v>
@@ -764,7 +716,7 @@
         <v>0.9999508444794813</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,34 +727,34 @@
         <v>1.001002788579844</v>
       </c>
       <c r="D4">
+        <v>1.001002788579844</v>
+      </c>
+      <c r="E4">
+        <v>0.9996867038607322</v>
+      </c>
+      <c r="F4">
+        <v>1.000537172378416</v>
+      </c>
+      <c r="G4">
+        <v>1.000373896833696</v>
+      </c>
+      <c r="H4">
+        <v>0.9990521520533125</v>
+      </c>
+      <c r="I4">
         <v>0.9985473785823196</v>
       </c>
-      <c r="E4">
+      <c r="J4">
+        <v>0.9996971014683653</v>
+      </c>
+      <c r="K4">
         <v>1.000343820203205</v>
       </c>
-      <c r="F4">
+      <c r="L4">
+        <v>0.9985473785823196</v>
+      </c>
+      <c r="M4">
         <v>1.001002788579844</v>
-      </c>
-      <c r="G4">
-        <v>0.9996867038607322</v>
-      </c>
-      <c r="H4">
-        <v>1.000537172378416</v>
-      </c>
-      <c r="I4">
-        <v>1.001002788579844</v>
-      </c>
-      <c r="J4">
-        <v>0.9985473785823196</v>
-      </c>
-      <c r="K4">
-        <v>0.9996971014683653</v>
-      </c>
-      <c r="L4">
-        <v>1.000373896833696</v>
-      </c>
-      <c r="M4">
-        <v>0.9990521520533124</v>
       </c>
       <c r="N4">
         <v>1.001002788579844</v>
@@ -832,10 +784,10 @@
         <v>1.000116695961189</v>
       </c>
       <c r="W4">
-        <v>0.9999051267449863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9999051267449864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.001918733648645</v>
       </c>
       <c r="D5">
+        <v>1.001918733648645</v>
+      </c>
+      <c r="E5">
+        <v>0.9993993849063257</v>
+      </c>
+      <c r="F5">
+        <v>1.001030292302773</v>
+      </c>
+      <c r="G5">
+        <v>1.000715659089154</v>
+      </c>
+      <c r="H5">
+        <v>0.9981828714558479</v>
+      </c>
+      <c r="I5">
         <v>0.9972145536025339</v>
       </c>
-      <c r="E5">
+      <c r="J5">
+        <v>0.9994206749742197</v>
+      </c>
+      <c r="K5">
         <v>1.000661617207717</v>
       </c>
-      <c r="F5">
+      <c r="L5">
+        <v>0.9972145536025339</v>
+      </c>
+      <c r="M5">
         <v>1.001918733648645</v>
-      </c>
-      <c r="G5">
-        <v>0.9993993849063257</v>
-      </c>
-      <c r="H5">
-        <v>1.001030292302773</v>
-      </c>
-      <c r="I5">
-        <v>1.001918733648645</v>
-      </c>
-      <c r="J5">
-        <v>0.9972145536025339</v>
-      </c>
-      <c r="K5">
-        <v>0.9994206749742197</v>
-      </c>
-      <c r="L5">
-        <v>1.000715659089154</v>
-      </c>
-      <c r="M5">
-        <v>0.9981828714558477</v>
       </c>
       <c r="N5">
         <v>1.001918733648645</v>
@@ -903,10 +855,10 @@
         <v>1.000222604602773</v>
       </c>
       <c r="W5">
-        <v>0.9998179733984019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9998179733984021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,34 +869,34 @@
         <v>1.00281271969319</v>
       </c>
       <c r="D6">
+        <v>1.00281271969319</v>
+      </c>
+      <c r="E6">
+        <v>0.9991189884681896</v>
+      </c>
+      <c r="F6">
+        <v>1.001511528261929</v>
+      </c>
+      <c r="G6">
+        <v>1.001049232646614</v>
+      </c>
+      <c r="H6">
+        <v>0.9973345142714618</v>
+      </c>
+      <c r="I6">
         <v>0.9959138174707373</v>
       </c>
-      <c r="E6">
+      <c r="J6">
+        <v>0.9991508663399331</v>
+      </c>
+      <c r="K6">
         <v>1.000971707765211</v>
       </c>
-      <c r="F6">
+      <c r="L6">
+        <v>0.9959138174707373</v>
+      </c>
+      <c r="M6">
         <v>1.00281271969319</v>
-      </c>
-      <c r="G6">
-        <v>0.9991189884681896</v>
-      </c>
-      <c r="H6">
-        <v>1.001511528261929</v>
-      </c>
-      <c r="I6">
-        <v>1.00281271969319</v>
-      </c>
-      <c r="J6">
-        <v>0.9959138174707373</v>
-      </c>
-      <c r="K6">
-        <v>0.9991508663399331</v>
-      </c>
-      <c r="L6">
-        <v>1.001049232646615</v>
-      </c>
-      <c r="M6">
-        <v>0.9973345142714618</v>
       </c>
       <c r="N6">
         <v>1.00281271969319</v>
@@ -974,10 +926,10 @@
         <v>1.000325990618104</v>
       </c>
       <c r="W6">
-        <v>0.9997329218646585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9997329218646583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -988,34 +940,34 @@
         <v>1.000014027259726</v>
       </c>
       <c r="D7">
-        <v>0.9999768859397969</v>
+        <v>1.000014027259726</v>
       </c>
       <c r="E7">
+        <v>0.9999950790690144</v>
+      </c>
+      <c r="F7">
+        <v>1.000008662341226</v>
+      </c>
+      <c r="G7">
+        <v>1.000005346970733</v>
+      </c>
+      <c r="H7">
+        <v>0.9999851071999895</v>
+      </c>
+      <c r="I7">
+        <v>0.9999768859397967</v>
+      </c>
+      <c r="J7">
+        <v>0.9999958754833161</v>
+      </c>
+      <c r="K7">
         <v>1.000006556675965</v>
       </c>
-      <c r="F7">
+      <c r="L7">
+        <v>0.9999768859397967</v>
+      </c>
+      <c r="M7">
         <v>1.000014027259726</v>
-      </c>
-      <c r="G7">
-        <v>0.9999950790690144</v>
-      </c>
-      <c r="H7">
-        <v>1.000008662341226</v>
-      </c>
-      <c r="I7">
-        <v>1.000014027259726</v>
-      </c>
-      <c r="J7">
-        <v>0.9999768859397969</v>
-      </c>
-      <c r="K7">
-        <v>0.9999958754833161</v>
-      </c>
-      <c r="L7">
-        <v>1.000005346970733</v>
-      </c>
-      <c r="M7">
-        <v>0.9999851071999893</v>
       </c>
       <c r="N7">
         <v>1.000014027259726</v>
@@ -1024,7 +976,7 @@
         <v>1.000006556675965</v>
       </c>
       <c r="P7">
-        <v>0.9999917213078811</v>
+        <v>0.9999917213078808</v>
       </c>
       <c r="Q7">
         <v>1.00000081787249</v>
@@ -1033,7 +985,7 @@
         <v>0.9999991566251628</v>
       </c>
       <c r="S7">
-        <v>0.9999928405615922</v>
+        <v>0.999992840561592</v>
       </c>
       <c r="T7">
         <v>0.9999991566251628</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999984426174708</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,40 +1008,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000341686645</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="D8">
+        <v>1.000003416866449</v>
+      </c>
+      <c r="E8">
+        <v>0.9999980101189974</v>
+      </c>
+      <c r="F8">
+        <v>1.000003798179638</v>
+      </c>
+      <c r="G8">
+        <v>1.000001474286615</v>
+      </c>
+      <c r="H8">
+        <v>0.9999939677909798</v>
+      </c>
+      <c r="I8">
         <v>0.9999902593983959</v>
       </c>
-      <c r="E8">
+      <c r="J8">
+        <v>0.9999991600970859</v>
+      </c>
+      <c r="K8">
         <v>1.000004166541377</v>
       </c>
-      <c r="F8">
-        <v>1.00000341686645</v>
-      </c>
-      <c r="G8">
-        <v>0.9999980101189974</v>
-      </c>
-      <c r="H8">
-        <v>1.000003798179638</v>
-      </c>
-      <c r="I8">
-        <v>1.00000341686645</v>
-      </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.9999902593983959</v>
       </c>
-      <c r="K8">
-        <v>0.9999991600970857</v>
-      </c>
-      <c r="L8">
-        <v>1.000001474286615</v>
-      </c>
       <c r="M8">
-        <v>0.9999939677909797</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="N8">
-        <v>1.00000341686645</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="O8">
         <v>1.000004166541377</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999992816599421</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,49 +1079,49 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999460386175761</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="D9">
+        <v>0.9999460386175759</v>
+      </c>
+      <c r="E9">
+        <v>1.000016449494549</v>
+      </c>
+      <c r="F9">
+        <v>0.9999719670381063</v>
+      </c>
+      <c r="G9">
+        <v>0.9999799690909666</v>
+      </c>
+      <c r="H9">
+        <v>1.000049763565081</v>
+      </c>
+      <c r="I9">
         <v>1.000076043867933</v>
       </c>
-      <c r="E9">
-        <v>0.999982827218602</v>
-      </c>
-      <c r="F9">
-        <v>0.9999460386175761</v>
-      </c>
-      <c r="G9">
-        <v>1.000016449494549</v>
-      </c>
-      <c r="H9">
-        <v>0.9999719670381063</v>
-      </c>
-      <c r="I9">
-        <v>0.9999460386175761</v>
-      </c>
       <c r="J9">
+        <v>1.000016385131909</v>
+      </c>
+      <c r="K9">
+        <v>0.9999828272186022</v>
+      </c>
+      <c r="L9">
         <v>1.000076043867933</v>
       </c>
-      <c r="K9">
-        <v>1.000016385131909</v>
-      </c>
-      <c r="L9">
-        <v>0.9999799690909666</v>
-      </c>
       <c r="M9">
-        <v>1.000049763565081</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="N9">
-        <v>0.9999460386175761</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="O9">
-        <v>0.999982827218602</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="P9">
-        <v>1.000029435543267</v>
+        <v>1.000029435543268</v>
       </c>
       <c r="Q9">
-        <v>0.9999996383565755</v>
+        <v>0.9999996383565756</v>
       </c>
       <c r="R9">
         <v>1.000001636568037</v>
@@ -1190,7 +1142,7 @@
         <v>1.00000493050309</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,40 +1150,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999366642839623</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="D10">
+        <v>0.9999366642839626</v>
+      </c>
+      <c r="E10">
+        <v>1.00001802111613</v>
+      </c>
+      <c r="F10">
+        <v>0.9999698430791834</v>
+      </c>
+      <c r="G10">
+        <v>0.9999767667035414</v>
+      </c>
+      <c r="H10">
+        <v>1.000054493898704</v>
+      </c>
+      <c r="I10">
         <v>1.00008256550549</v>
       </c>
-      <c r="E10">
+      <c r="J10">
+        <v>1.000019500100688</v>
+      </c>
+      <c r="K10">
         <v>0.9999840245778081</v>
       </c>
-      <c r="F10">
-        <v>0.9999366642839623</v>
-      </c>
-      <c r="G10">
-        <v>1.00001802111613</v>
-      </c>
-      <c r="H10">
-        <v>0.9999698430791834</v>
-      </c>
-      <c r="I10">
-        <v>0.9999366642839623</v>
-      </c>
-      <c r="J10">
+      <c r="L10">
         <v>1.00008256550549</v>
       </c>
-      <c r="K10">
-        <v>1.000019500100688</v>
-      </c>
-      <c r="L10">
-        <v>0.9999767667035414</v>
-      </c>
       <c r="M10">
-        <v>1.000054493898704</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="N10">
-        <v>0.9999366642839623</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="O10">
         <v>0.9999840245778081</v>
@@ -1255,13 +1207,13 @@
         <v>1.000005318870848</v>
       </c>
       <c r="V10">
-        <v>0.9999915879534707</v>
+        <v>0.9999915879534708</v>
       </c>
       <c r="W10">
         <v>1.000005234908188</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,34 +1224,34 @@
         <v>0.9997612043993357</v>
       </c>
       <c r="D11">
+        <v>0.9997612043993357</v>
+      </c>
+      <c r="E11">
+        <v>1.000073745696942</v>
+      </c>
+      <c r="F11">
+        <v>0.9998739225307673</v>
+      </c>
+      <c r="G11">
+        <v>0.9999111535341664</v>
+      </c>
+      <c r="H11">
+        <v>1.000223095527916</v>
+      </c>
+      <c r="I11">
         <v>1.000341438385702</v>
       </c>
-      <c r="E11">
+      <c r="J11">
+        <v>1.000072309520992</v>
+      </c>
+      <c r="K11">
         <v>0.9999209240186009</v>
       </c>
-      <c r="F11">
+      <c r="L11">
+        <v>1.000341438385702</v>
+      </c>
+      <c r="M11">
         <v>0.9997612043993357</v>
-      </c>
-      <c r="G11">
-        <v>1.000073745696942</v>
-      </c>
-      <c r="H11">
-        <v>0.9998739225307673</v>
-      </c>
-      <c r="I11">
-        <v>0.9997612043993357</v>
-      </c>
-      <c r="J11">
-        <v>1.000341438385702</v>
-      </c>
-      <c r="K11">
-        <v>1.000072309520992</v>
-      </c>
-      <c r="L11">
-        <v>0.9999111535341664</v>
-      </c>
-      <c r="M11">
-        <v>1.000223095527916</v>
       </c>
       <c r="N11">
         <v>0.9997612043993357</v>
@@ -1332,7 +1284,7 @@
         <v>1.000022224201803</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,34 +1295,34 @@
         <v>1.000904523457336</v>
       </c>
       <c r="D12">
-        <v>0.998712304105885</v>
+        <v>1.000904523457336</v>
       </c>
       <c r="E12">
+        <v>0.9997217417687106</v>
+      </c>
+      <c r="F12">
+        <v>1.000475262957306</v>
+      </c>
+      <c r="G12">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="H12">
+        <v>0.9991582473367512</v>
+      </c>
+      <c r="I12">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="J12">
+        <v>0.9997258790799392</v>
+      </c>
+      <c r="K12">
         <v>1.000296024782096</v>
       </c>
-      <c r="F12">
+      <c r="L12">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="M12">
         <v>1.000904523457336</v>
-      </c>
-      <c r="G12">
-        <v>0.9997217417687106</v>
-      </c>
-      <c r="H12">
-        <v>1.000475262957306</v>
-      </c>
-      <c r="I12">
-        <v>1.000904523457336</v>
-      </c>
-      <c r="J12">
-        <v>0.998712304105885</v>
-      </c>
-      <c r="K12">
-        <v>0.9997258790799392</v>
-      </c>
-      <c r="L12">
-        <v>1.000336325498456</v>
-      </c>
-      <c r="M12">
-        <v>0.9991582473367511</v>
       </c>
       <c r="N12">
         <v>1.000904523457336</v>
@@ -1379,31 +1331,31 @@
         <v>1.000296024782096</v>
       </c>
       <c r="P12">
-        <v>0.9995041644439904</v>
+        <v>0.9995041644439903</v>
       </c>
       <c r="Q12">
         <v>1.000008883275403</v>
       </c>
       <c r="R12">
-        <v>0.9999709507817722</v>
+        <v>0.9999709507817721</v>
       </c>
       <c r="S12">
         <v>0.9995766902188971</v>
       </c>
       <c r="T12">
-        <v>0.9999709507817722</v>
+        <v>0.9999709507817721</v>
       </c>
       <c r="U12">
-        <v>0.9999086485285068</v>
+        <v>0.9999086485285067</v>
       </c>
       <c r="V12">
-        <v>1.000107823514273</v>
+        <v>1.000107823514272</v>
       </c>
       <c r="W12">
         <v>0.9999162886233099</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1414,34 +1366,34 @@
         <v>1.000220137397194</v>
       </c>
       <c r="D13">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="E13">
+        <v>0.9999226385451718</v>
+      </c>
+      <c r="F13">
+        <v>1.000136254576551</v>
+      </c>
+      <c r="G13">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="H13">
+        <v>0.9997657980361905</v>
+      </c>
+      <c r="I13">
         <v>0.9996364740418495</v>
       </c>
-      <c r="E13">
+      <c r="J13">
+        <v>0.9999352894761144</v>
+      </c>
+      <c r="K13">
         <v>1.000103377191377</v>
       </c>
-      <c r="F13">
+      <c r="L13">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="M13">
         <v>1.000220137397194</v>
-      </c>
-      <c r="G13">
-        <v>0.9999226385451718</v>
-      </c>
-      <c r="H13">
-        <v>1.000136254576551</v>
-      </c>
-      <c r="I13">
-        <v>1.000220137397194</v>
-      </c>
-      <c r="J13">
-        <v>0.9996364740418495</v>
-      </c>
-      <c r="K13">
-        <v>0.9999352894761145</v>
-      </c>
-      <c r="L13">
-        <v>1.000083939203447</v>
-      </c>
-      <c r="M13">
-        <v>0.9997657980361904</v>
       </c>
       <c r="N13">
         <v>1.000220137397194</v>
@@ -1474,7 +1426,7 @@
         <v>0.9999754885584868</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1485,34 +1437,34 @@
         <v>0.9173777296412537</v>
       </c>
       <c r="D14">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="E14">
+        <v>1.02672831878448</v>
+      </c>
+      <c r="F14">
+        <v>0.9537878256957285</v>
+      </c>
+      <c r="G14">
+        <v>0.968995417645736</v>
+      </c>
+      <c r="H14">
+        <v>1.080880441330878</v>
+      </c>
+      <c r="I14">
         <v>1.124442944769613</v>
       </c>
-      <c r="E14">
+      <c r="J14">
+        <v>1.024766309489313</v>
+      </c>
+      <c r="K14">
         <v>0.9686981865604244</v>
       </c>
-      <c r="F14">
+      <c r="L14">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="M14">
         <v>0.9173777296412537</v>
-      </c>
-      <c r="G14">
-        <v>1.02672831878448</v>
-      </c>
-      <c r="H14">
-        <v>0.9537878256957285</v>
-      </c>
-      <c r="I14">
-        <v>0.9173777296412537</v>
-      </c>
-      <c r="J14">
-        <v>1.124442944769613</v>
-      </c>
-      <c r="K14">
-        <v>1.024766309489313</v>
-      </c>
-      <c r="L14">
-        <v>0.968995417645736</v>
-      </c>
-      <c r="M14">
-        <v>1.080880441330878</v>
       </c>
       <c r="N14">
         <v>0.9173777296412537</v>
@@ -1545,7 +1497,7 @@
         <v>1.008209646739678</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,46 +1508,46 @@
         <v>0.9778055018278902</v>
       </c>
       <c r="D15">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="E15">
+        <v>1.007111222442479</v>
+      </c>
+      <c r="F15">
+        <v>0.987732865589501</v>
+      </c>
+      <c r="G15">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="H15">
+        <v>1.021517523486465</v>
+      </c>
+      <c r="I15">
         <v>1.033071397338449</v>
       </c>
-      <c r="E15">
-        <v>0.991814786831627</v>
-      </c>
-      <c r="F15">
+      <c r="J15">
+        <v>1.006667162313775</v>
+      </c>
+      <c r="K15">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="L15">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="M15">
         <v>0.9778055018278902</v>
-      </c>
-      <c r="G15">
-        <v>1.007111222442479</v>
-      </c>
-      <c r="H15">
-        <v>0.987732865589501</v>
-      </c>
-      <c r="I15">
-        <v>0.9778055018278902</v>
-      </c>
-      <c r="J15">
-        <v>1.033071397338449</v>
-      </c>
-      <c r="K15">
-        <v>1.006667162313775</v>
-      </c>
-      <c r="L15">
-        <v>0.9916862453123849</v>
-      </c>
-      <c r="M15">
-        <v>1.021517523486465</v>
       </c>
       <c r="N15">
         <v>0.9778055018278902</v>
       </c>
       <c r="O15">
-        <v>0.991814786831627</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="P15">
         <v>1.012443092085038</v>
       </c>
       <c r="Q15">
-        <v>0.9994630046370532</v>
+        <v>0.9994630046370533</v>
       </c>
       <c r="R15">
         <v>1.000897228665989</v>
@@ -1613,10 +1565,10 @@
         <v>0.9975216820536673</v>
       </c>
       <c r="W15">
-        <v>1.002175838142821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.002175838142822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999998716431275</v>
+        <v>1.010084172450054</v>
       </c>
       <c r="D16">
-        <v>0.9999949638095905</v>
+        <v>1.010084172450054</v>
       </c>
       <c r="E16">
-        <v>1.000003870245656</v>
+        <v>0.9968358646415026</v>
       </c>
       <c r="F16">
-        <v>0.999998716431275</v>
+        <v>1.005430878622652</v>
       </c>
       <c r="G16">
-        <v>0.9999990737135245</v>
+        <v>1.003762905506334</v>
       </c>
       <c r="H16">
-        <v>1.000002144468717</v>
+        <v>0.9904269315648456</v>
       </c>
       <c r="I16">
-        <v>0.999998716431275</v>
+        <v>0.9853215821751267</v>
       </c>
       <c r="J16">
-        <v>0.9999949638095905</v>
+        <v>0.9969568416882453</v>
       </c>
       <c r="K16">
-        <v>1.000000664098818</v>
+        <v>1.003501669070067</v>
       </c>
       <c r="L16">
-        <v>0.9999998093001783</v>
+        <v>0.9853215821751267</v>
       </c>
       <c r="M16">
-        <v>0.9999971789531104</v>
+        <v>1.010084172450054</v>
       </c>
       <c r="N16">
-        <v>0.999998716431275</v>
+        <v>1.010084172450054</v>
       </c>
       <c r="O16">
-        <v>1.000003870245656</v>
+        <v>1.003501669070067</v>
       </c>
       <c r="P16">
-        <v>0.9999994170276234</v>
+        <v>0.9944116256225969</v>
       </c>
       <c r="Q16">
-        <v>1.00000147197959</v>
+        <v>1.000168766855785</v>
       </c>
       <c r="R16">
-        <v>0.9999991834955072</v>
+        <v>0.9996358078984159</v>
       </c>
       <c r="S16">
-        <v>0.9999993025895905</v>
+        <v>0.9952197052955655</v>
       </c>
       <c r="T16">
-        <v>0.9999991834955072</v>
+        <v>0.9996358078984159</v>
       </c>
       <c r="U16">
-        <v>0.9999991560500116</v>
+        <v>0.9989358220841876</v>
       </c>
       <c r="V16">
-        <v>0.9999990681262643</v>
+        <v>1.001165492157361</v>
       </c>
       <c r="W16">
-        <v>0.9999995526276086</v>
+        <v>0.9990401057148535</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000047420499376</v>
+        <v>1.008144461666858</v>
       </c>
       <c r="D17">
-        <v>0.9999353169479764</v>
+        <v>1.008144461666858</v>
       </c>
       <c r="E17">
-        <v>1.000013752951584</v>
+        <v>0.9974189458948226</v>
       </c>
       <c r="F17">
-        <v>1.000047420499376</v>
+        <v>1.004440767491545</v>
       </c>
       <c r="G17">
-        <v>0.9999859551090933</v>
+        <v>1.003044637412297</v>
       </c>
       <c r="H17">
-        <v>1.000023757523516</v>
+        <v>0.9921905935433261</v>
       </c>
       <c r="I17">
-        <v>1.000047420499376</v>
+        <v>0.9880121840586821</v>
       </c>
       <c r="J17">
-        <v>0.9999353169479764</v>
+        <v>0.9975475114805114</v>
       </c>
       <c r="K17">
-        <v>0.9999855162742552</v>
+        <v>1.002911128997334</v>
       </c>
       <c r="L17">
-        <v>1.000017514546741</v>
+        <v>0.9880121840586821</v>
       </c>
       <c r="M17">
-        <v>0.9999575259458076</v>
+        <v>1.008144461666858</v>
       </c>
       <c r="N17">
-        <v>1.000047420499376</v>
+        <v>1.008144461666858</v>
       </c>
       <c r="O17">
-        <v>1.000013752951584</v>
+        <v>1.002911128997334</v>
       </c>
       <c r="P17">
-        <v>0.9999745349497804</v>
+        <v>0.9954616565280083</v>
       </c>
       <c r="Q17">
-        <v>0.9999998540303388</v>
+        <v>1.000165037446079</v>
       </c>
       <c r="R17">
-        <v>0.9999988301329789</v>
+        <v>0.9996892582409581</v>
       </c>
       <c r="S17">
-        <v>0.9999783416695514</v>
+        <v>0.9961140863169464</v>
       </c>
       <c r="T17">
-        <v>0.9999988301329789</v>
+        <v>0.9996892582409581</v>
       </c>
       <c r="U17">
-        <v>0.9999956113770074</v>
+        <v>0.9991216801544243</v>
       </c>
       <c r="V17">
-        <v>1.000005973201481</v>
+        <v>1.000926236456911</v>
       </c>
       <c r="W17">
-        <v>0.9999958449747938</v>
+        <v>0.999213778818172</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000151888687529</v>
+        <v>1.004169720352327</v>
       </c>
       <c r="D18">
-        <v>0.9997637967278139</v>
+        <v>1.004169720352327</v>
       </c>
       <c r="E18">
-        <v>1.000062189058848</v>
+        <v>0.998616785714026</v>
       </c>
       <c r="F18">
-        <v>1.000151888687529</v>
+        <v>1.002405437751601</v>
       </c>
       <c r="G18">
-        <v>0.999949432460508</v>
+        <v>1.001572149530898</v>
       </c>
       <c r="H18">
-        <v>1.000088008700229</v>
+        <v>0.9958137883649655</v>
       </c>
       <c r="I18">
-        <v>1.000151888687529</v>
+        <v>0.9935413284004607</v>
       </c>
       <c r="J18">
-        <v>0.9997637967278139</v>
+        <v>0.998757247950011</v>
       </c>
       <c r="K18">
-        <v>0.9999547691253969</v>
+        <v>1.001691202788368</v>
       </c>
       <c r="L18">
-        <v>1.000057306075096</v>
+        <v>0.9935413284004607</v>
       </c>
       <c r="M18">
-        <v>0.9998469651017078</v>
+        <v>1.004169720352327</v>
       </c>
       <c r="N18">
-        <v>1.000151888687529</v>
+        <v>1.004169720352327</v>
       </c>
       <c r="O18">
-        <v>1.000062189058848</v>
+        <v>1.001691202788368</v>
       </c>
       <c r="P18">
-        <v>0.9999129928933309</v>
+        <v>0.9976162655944143</v>
       </c>
       <c r="Q18">
-        <v>1.000005810759678</v>
+        <v>1.000153994251197</v>
       </c>
       <c r="R18">
-        <v>0.9999926248247304</v>
+        <v>0.9998007505137183</v>
       </c>
       <c r="S18">
-        <v>0.9999251394157233</v>
+        <v>0.9979497723009515</v>
       </c>
       <c r="T18">
-        <v>0.9999926248247304</v>
+        <v>0.9998007505137183</v>
       </c>
       <c r="U18">
-        <v>0.9999818267336749</v>
+        <v>0.9995047593137952</v>
       </c>
       <c r="V18">
-        <v>1.000015839124446</v>
+        <v>1.000437751521501</v>
       </c>
       <c r="W18">
-        <v>0.9999842944921411</v>
+        <v>0.9995709576065821</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="D19">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="E19">
+        <v>0.9984080391203007</v>
+      </c>
+      <c r="F19">
+        <v>1.002772584964027</v>
+      </c>
+      <c r="G19">
+        <v>1.001799806848815</v>
+      </c>
+      <c r="H19">
+        <v>0.9951818489742463</v>
+      </c>
+      <c r="I19">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="J19">
+        <v>0.9985812466613108</v>
+      </c>
+      <c r="K19">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="L19">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="M19">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="N19">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="O19">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="P19">
+        <v>0.9972643346902768</v>
+      </c>
+      <c r="Q19">
+        <v>1.000187813999298</v>
+      </c>
+      <c r="R19">
+        <v>0.9997653981763598</v>
+      </c>
+      <c r="S19">
+        <v>0.9976455695002847</v>
+      </c>
+      <c r="T19">
+        <v>0.9997653981763598</v>
+      </c>
+      <c r="U19">
+        <v>0.999426058412345</v>
+      </c>
+      <c r="V19">
+        <v>1.000494351759581</v>
+      </c>
+      <c r="W19">
+        <v>0.9995049651372223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="D20">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="E20">
+        <v>0.9999990737135249</v>
+      </c>
+      <c r="F20">
+        <v>1.000002144468717</v>
+      </c>
+      <c r="G20">
+        <v>0.9999998093001783</v>
+      </c>
+      <c r="H20">
+        <v>0.9999971789531107</v>
+      </c>
+      <c r="I20">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="J20">
+        <v>1.000000664098818</v>
+      </c>
+      <c r="K20">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="L20">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="M20">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="N20">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="O20">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="P20">
+        <v>0.9999994170276234</v>
+      </c>
+      <c r="Q20">
+        <v>1.000001471979591</v>
+      </c>
+      <c r="R20">
+        <v>0.9999991834955072</v>
+      </c>
+      <c r="S20">
+        <v>0.9999993025895906</v>
+      </c>
+      <c r="T20">
+        <v>0.9999991834955072</v>
+      </c>
+      <c r="U20">
+        <v>0.9999991560500117</v>
+      </c>
+      <c r="V20">
+        <v>0.9999990681262643</v>
+      </c>
+      <c r="W20">
+        <v>0.9999995526276086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="D21">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="E21">
+        <v>0.9999859551090933</v>
+      </c>
+      <c r="F21">
+        <v>1.000023757523516</v>
+      </c>
+      <c r="G21">
+        <v>1.000017514546741</v>
+      </c>
+      <c r="H21">
+        <v>0.9999575259458077</v>
+      </c>
+      <c r="I21">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="J21">
+        <v>0.9999855162742552</v>
+      </c>
+      <c r="K21">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="L21">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="M21">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="N21">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="O21">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="P21">
+        <v>0.9999745349497803</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999998540303388</v>
+      </c>
+      <c r="R21">
+        <v>0.9999988301329786</v>
+      </c>
+      <c r="S21">
+        <v>0.9999783416695512</v>
+      </c>
+      <c r="T21">
+        <v>0.9999988301329786</v>
+      </c>
+      <c r="U21">
+        <v>0.9999956113770073</v>
+      </c>
+      <c r="V21">
+        <v>1.000005973201481</v>
+      </c>
+      <c r="W21">
+        <v>0.9999958449747938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="D22">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="E22">
+        <v>0.9999494324605084</v>
+      </c>
+      <c r="F22">
+        <v>1.000088008700229</v>
+      </c>
+      <c r="G22">
+        <v>1.000057306075096</v>
+      </c>
+      <c r="H22">
+        <v>0.9998469651017083</v>
+      </c>
+      <c r="I22">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="J22">
+        <v>0.9999547691253969</v>
+      </c>
+      <c r="K22">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="L22">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="M22">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="N22">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="O22">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="P22">
+        <v>0.999912992893331</v>
+      </c>
+      <c r="Q22">
+        <v>1.000005810759678</v>
+      </c>
+      <c r="R22">
+        <v>0.9999926248247304</v>
+      </c>
+      <c r="S22">
+        <v>0.9999251394157235</v>
+      </c>
+      <c r="T22">
+        <v>0.9999926248247304</v>
+      </c>
+      <c r="U22">
+        <v>0.9999818267336749</v>
+      </c>
+      <c r="V22">
+        <v>1.000015839124446</v>
+      </c>
+      <c r="W22">
+        <v>0.9999842944921412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000348418772762</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.000348418772762</v>
+      </c>
+      <c r="E23">
+        <v>0.9998809882694061</v>
+      </c>
+      <c r="F23">
+        <v>1.000208321064647</v>
+      </c>
+      <c r="G23">
+        <v>1.000132109605388</v>
+      </c>
+      <c r="H23">
+        <v>0.9996397609889439</v>
+      </c>
+      <c r="I23">
         <v>0.9994424800133056</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>0.9998968688895661</v>
+      </c>
+      <c r="K23">
         <v>1.000152464205067</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>0.9994424800133056</v>
+      </c>
+      <c r="M23">
         <v>1.000348418772762</v>
       </c>
-      <c r="G19">
-        <v>0.9998809882694061</v>
-      </c>
-      <c r="H19">
-        <v>1.000208321064647</v>
-      </c>
-      <c r="I19">
+      <c r="N23">
         <v>1.000348418772762</v>
       </c>
-      <c r="J19">
-        <v>0.9994424800133056</v>
-      </c>
-      <c r="K19">
-        <v>0.9998968688895661</v>
-      </c>
-      <c r="L19">
-        <v>1.000132109605388</v>
-      </c>
-      <c r="M19">
-        <v>0.9996397609889439</v>
-      </c>
-      <c r="N19">
-        <v>1.000348418772762</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000152464205067</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9997974721091862</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000016726237236</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999811209970447</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998253108292595</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999811209970447</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.999956087815135</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.00003455400666</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999626764761356</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000519291939382</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="D3">
-        <v>1.000519291939382</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="E3">
-        <v>0.9998376993696431</v>
+        <v>0.9982690403458234</v>
       </c>
       <c r="F3">
-        <v>1.000278303024446</v>
+        <v>1.00300782628242</v>
       </c>
       <c r="G3">
-        <v>1.000193635630451</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="H3">
-        <v>0.9995089757457912</v>
+        <v>0.9947614552089312</v>
       </c>
       <c r="I3">
-        <v>0.9992474495261396</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="J3">
-        <v>0.9998431576993552</v>
+        <v>0.9984382574783888</v>
       </c>
       <c r="K3">
-        <v>1.000178242900643</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="L3">
-        <v>0.9992474495261396</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="M3">
-        <v>1.000519291939382</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="N3">
-        <v>1.000519291939382</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="O3">
-        <v>1.000178242900643</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="P3">
-        <v>0.9997128462133911</v>
+        <v>0.9970125489373198</v>
       </c>
       <c r="Q3">
-        <v>1.000007971135143</v>
+        <v>1.000186701646255</v>
       </c>
       <c r="R3">
-        <v>0.9999816614553879</v>
+        <v>0.9997536575</v>
       </c>
       <c r="S3">
-        <v>0.9997544639321417</v>
+        <v>0.9974313794068209</v>
       </c>
       <c r="T3">
-        <v>0.9999816614553879</v>
+        <v>0.9997536575</v>
       </c>
       <c r="U3">
-        <v>0.9999456709339517</v>
+        <v>0.9993825032114558</v>
       </c>
       <c r="V3">
-        <v>1.000060395135038</v>
+        <v>1.000553177494237</v>
       </c>
       <c r="W3">
-        <v>0.9999508444794813</v>
+        <v>0.9994637999324569</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001002788579844</v>
+        <v>1.004780581910174</v>
       </c>
       <c r="D4">
-        <v>1.001002788579844</v>
+        <v>1.004780581910174</v>
       </c>
       <c r="E4">
-        <v>0.9996867038607322</v>
+        <v>0.9984174783926594</v>
       </c>
       <c r="F4">
-        <v>1.000537172378416</v>
+        <v>1.002750716204805</v>
       </c>
       <c r="G4">
-        <v>1.000373896833696</v>
+        <v>1.001801746520683</v>
       </c>
       <c r="H4">
-        <v>0.9990521520533125</v>
+        <v>0.9952106513520357</v>
       </c>
       <c r="I4">
-        <v>0.9985473785823196</v>
+        <v>0.9926124652870006</v>
       </c>
       <c r="J4">
-        <v>0.9996971014683653</v>
+        <v>0.9985744932221394</v>
       </c>
       <c r="K4">
-        <v>1.000343820203205</v>
+        <v>1.001928133387999</v>
       </c>
       <c r="L4">
-        <v>0.9985473785823196</v>
+        <v>0.9926124652870006</v>
       </c>
       <c r="M4">
-        <v>1.001002788579844</v>
+        <v>1.004780581910174</v>
       </c>
       <c r="N4">
-        <v>1.001002788579844</v>
+        <v>1.004780581910174</v>
       </c>
       <c r="O4">
-        <v>1.000343820203205</v>
+        <v>1.001928133387999</v>
       </c>
       <c r="P4">
-        <v>0.9994455993927625</v>
+        <v>0.9972702993375</v>
       </c>
       <c r="Q4">
-        <v>1.000015262031969</v>
+        <v>1.000172805890329</v>
       </c>
       <c r="R4">
-        <v>0.9999646624551231</v>
+        <v>0.9997737268617245</v>
       </c>
       <c r="S4">
-        <v>0.9995259675487524</v>
+        <v>0.9976526923558865</v>
       </c>
       <c r="T4">
-        <v>0.9999646624551231</v>
+        <v>0.9997737268617245</v>
       </c>
       <c r="U4">
-        <v>0.9998951728065253</v>
+        <v>0.9994346647444583</v>
       </c>
       <c r="V4">
-        <v>1.000116695961189</v>
+        <v>1.000503848177601</v>
       </c>
       <c r="W4">
-        <v>0.9999051267449864</v>
+        <v>0.9995095332846871</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001918733648645</v>
+        <v>1.006031439730458</v>
       </c>
       <c r="D5">
-        <v>1.001918733648645</v>
+        <v>1.006031439730458</v>
       </c>
       <c r="E5">
-        <v>0.9993993849063257</v>
+        <v>0.9980091588409699</v>
       </c>
       <c r="F5">
-        <v>1.001030292302773</v>
+        <v>1.003458181509433</v>
       </c>
       <c r="G5">
-        <v>1.000715659089154</v>
+        <v>1.002271932668463</v>
       </c>
       <c r="H5">
-        <v>0.9981828714558479</v>
+        <v>0.9939749988948784</v>
       </c>
       <c r="I5">
-        <v>0.9972145536025339</v>
+        <v>0.9907093837735834</v>
       </c>
       <c r="J5">
-        <v>0.9994206749742197</v>
+        <v>0.9982003077358496</v>
       </c>
       <c r="K5">
-        <v>1.000661617207717</v>
+        <v>1.002413951940701</v>
       </c>
       <c r="L5">
-        <v>0.9972145536025339</v>
+        <v>0.9907093837735834</v>
       </c>
       <c r="M5">
-        <v>1.001918733648645</v>
+        <v>1.006031439730458</v>
       </c>
       <c r="N5">
-        <v>1.001918733648645</v>
+        <v>1.006031439730458</v>
       </c>
       <c r="O5">
-        <v>1.000661617207717</v>
+        <v>1.002413951940701</v>
       </c>
       <c r="P5">
-        <v>0.9989380854051256</v>
+        <v>0.9965616678571423</v>
       </c>
       <c r="Q5">
-        <v>1.000030501057022</v>
+        <v>1.000211555390836</v>
       </c>
       <c r="R5">
-        <v>0.999931634819632</v>
+        <v>0.9997182584815807</v>
       </c>
       <c r="S5">
-        <v>0.9990918519055256</v>
+        <v>0.9970441648517515</v>
       </c>
       <c r="T5">
-        <v>0.999931634819632</v>
+        <v>0.9997182584815807</v>
       </c>
       <c r="U5">
-        <v>0.9997985723413054</v>
+        <v>0.999290983571428</v>
       </c>
       <c r="V5">
-        <v>1.000222604602773</v>
+        <v>1.000639074803234</v>
       </c>
       <c r="W5">
-        <v>0.9998179733984021</v>
+        <v>0.9993836693867921</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00281271969319</v>
+        <v>1.006692095056819</v>
       </c>
       <c r="D6">
-        <v>1.00281271969319</v>
+        <v>1.006692095056819</v>
       </c>
       <c r="E6">
-        <v>0.9991189884681896</v>
+        <v>0.9977926881250001</v>
       </c>
       <c r="F6">
-        <v>1.001511528261929</v>
+        <v>1.003833564318182</v>
       </c>
       <c r="G6">
-        <v>1.001049232646614</v>
+        <v>1.002520450056818</v>
       </c>
       <c r="H6">
-        <v>0.9973345142714618</v>
+        <v>0.9933199007954555</v>
       </c>
       <c r="I6">
-        <v>0.9959138174707373</v>
+        <v>0.9897000243181825</v>
       </c>
       <c r="J6">
-        <v>0.9991508663399331</v>
+        <v>0.9980028476136359</v>
       </c>
       <c r="K6">
-        <v>1.000971707765211</v>
+        <v>1.002673182897727</v>
       </c>
       <c r="L6">
-        <v>0.9959138174707373</v>
+        <v>0.9897000243181825</v>
       </c>
       <c r="M6">
-        <v>1.00281271969319</v>
+        <v>1.006692095056819</v>
       </c>
       <c r="N6">
-        <v>1.00281271969319</v>
+        <v>1.006692095056819</v>
       </c>
       <c r="O6">
-        <v>1.000971707765211</v>
+        <v>1.002673182897727</v>
       </c>
       <c r="P6">
-        <v>0.9984427626179742</v>
+        <v>0.996186603607955</v>
       </c>
       <c r="Q6">
-        <v>1.0000453481167</v>
+        <v>1.000232935511364</v>
       </c>
       <c r="R6">
-        <v>0.9998994149763796</v>
+        <v>0.9996884340909095</v>
       </c>
       <c r="S6">
-        <v>0.9986681712347126</v>
+        <v>0.9967219651136366</v>
       </c>
       <c r="T6">
-        <v>0.9998994149763796</v>
+        <v>0.9996884340909095</v>
       </c>
       <c r="U6">
-        <v>0.9997043083493321</v>
+        <v>0.9992144975994321</v>
       </c>
       <c r="V6">
-        <v>1.000325990618104</v>
+        <v>1.000710017090909</v>
       </c>
       <c r="W6">
-        <v>0.9997329218646583</v>
+        <v>0.9993168441477275</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000014027259726</v>
+        <v>1.010555454385014</v>
       </c>
       <c r="D7">
-        <v>1.000014027259726</v>
+        <v>1.010555454385014</v>
       </c>
       <c r="E7">
-        <v>0.9999950790690144</v>
+        <v>0.9967546850463312</v>
       </c>
       <c r="F7">
-        <v>1.000008662341226</v>
+        <v>1.005542326328789</v>
       </c>
       <c r="G7">
-        <v>1.000005346970733</v>
+        <v>1.003924315530048</v>
       </c>
       <c r="H7">
-        <v>0.9999851071999895</v>
+        <v>0.990182489716689</v>
       </c>
       <c r="I7">
-        <v>0.9999768859397967</v>
+        <v>0.9849823549337132</v>
       </c>
       <c r="J7">
-        <v>0.9999958754833161</v>
+        <v>0.9968007510252781</v>
       </c>
       <c r="K7">
-        <v>1.000006556675965</v>
+        <v>1.003448589104528</v>
       </c>
       <c r="L7">
-        <v>0.9999768859397967</v>
+        <v>0.9849823549337132</v>
       </c>
       <c r="M7">
-        <v>1.000014027259726</v>
+        <v>1.010555454385014</v>
       </c>
       <c r="N7">
-        <v>1.000014027259726</v>
+        <v>1.010555454385014</v>
       </c>
       <c r="O7">
-        <v>1.000006556675965</v>
+        <v>1.003448589104528</v>
       </c>
       <c r="P7">
-        <v>0.9999917213078808</v>
+        <v>0.9942154720191207</v>
       </c>
       <c r="Q7">
-        <v>1.00000081787249</v>
+        <v>1.00010163707543</v>
       </c>
       <c r="R7">
-        <v>0.9999991566251628</v>
+        <v>0.9996621328077518</v>
       </c>
       <c r="S7">
-        <v>0.999992840561592</v>
+        <v>0.9950618763615243</v>
       </c>
       <c r="T7">
-        <v>0.9999991566251628</v>
+        <v>0.9996621328077518</v>
       </c>
       <c r="U7">
-        <v>0.9999981372361257</v>
+        <v>0.9989352708673968</v>
       </c>
       <c r="V7">
-        <v>1.000001315240846</v>
+        <v>1.00125930757092</v>
       </c>
       <c r="W7">
-        <v>0.9999984426174708</v>
+        <v>0.9990238707587988</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000003416866449</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="D8">
-        <v>1.000003416866449</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="E8">
-        <v>0.9999980101189974</v>
+        <v>0.9968226724616092</v>
       </c>
       <c r="F8">
-        <v>1.000003798179638</v>
+        <v>1.005425666555968</v>
       </c>
       <c r="G8">
-        <v>1.000001474286615</v>
+        <v>1.00384338652565</v>
       </c>
       <c r="H8">
-        <v>0.9999939677909798</v>
+        <v>0.9903881835754523</v>
       </c>
       <c r="I8">
-        <v>0.9999902593983959</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="J8">
-        <v>0.9999991600970859</v>
+        <v>0.9968662305875478</v>
       </c>
       <c r="K8">
-        <v>1.000004166541377</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="L8">
-        <v>0.9999902593983959</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="M8">
-        <v>1.000003416866449</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="N8">
-        <v>1.000003416866449</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="O8">
-        <v>1.000004166541377</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="P8">
-        <v>0.9999972129698862</v>
+        <v>0.9943356106019539</v>
       </c>
       <c r="Q8">
-        <v>1.000001088330187</v>
+        <v>1.000098094702474</v>
       </c>
       <c r="R8">
-        <v>0.9999992809354072</v>
+        <v>0.9996699164484149</v>
       </c>
       <c r="S8">
-        <v>0.9999974786862565</v>
+        <v>0.9951646312218388</v>
       </c>
       <c r="T8">
-        <v>0.9999992809354072</v>
+        <v>0.9996699164484149</v>
       </c>
       <c r="U8">
-        <v>0.9999989632313048</v>
+        <v>0.9989581054517134</v>
       </c>
       <c r="V8">
-        <v>0.9999998539583338</v>
+        <v>1.001234189989638</v>
       </c>
       <c r="W8">
-        <v>0.9999992816599421</v>
+        <v>0.9990444861314339</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999460386175759</v>
+        <v>1.010277265016692</v>
       </c>
       <c r="D9">
-        <v>0.9999460386175759</v>
+        <v>1.010277265016692</v>
       </c>
       <c r="E9">
-        <v>1.000016449494549</v>
+        <v>0.9968402163926982</v>
       </c>
       <c r="F9">
-        <v>0.9999719670381063</v>
+        <v>1.005396256323104</v>
       </c>
       <c r="G9">
-        <v>0.9999799690909666</v>
+        <v>1.003820889901179</v>
       </c>
       <c r="H9">
-        <v>1.000049763565081</v>
+        <v>0.9904412332293854</v>
       </c>
       <c r="I9">
-        <v>1.000076043867933</v>
+        <v>0.9853781499576242</v>
       </c>
       <c r="J9">
-        <v>1.000016385131909</v>
+        <v>0.9968850675374769</v>
       </c>
       <c r="K9">
-        <v>0.9999828272186022</v>
+        <v>1.003357698991005</v>
       </c>
       <c r="L9">
-        <v>1.000076043867933</v>
+        <v>0.9853781499576242</v>
       </c>
       <c r="M9">
-        <v>0.9999460386175759</v>
+        <v>1.010277265016692</v>
       </c>
       <c r="N9">
-        <v>0.9999460386175759</v>
+        <v>1.010277265016692</v>
       </c>
       <c r="O9">
-        <v>0.9999828272186022</v>
+        <v>1.003357698991005</v>
       </c>
       <c r="P9">
-        <v>1.000029435543268</v>
+        <v>0.9943679244743145</v>
       </c>
       <c r="Q9">
-        <v>0.9999996383565756</v>
+        <v>1.000098957691852</v>
       </c>
       <c r="R9">
-        <v>1.000001636568037</v>
+        <v>0.9996710379884405</v>
       </c>
       <c r="S9">
-        <v>1.000025106860361</v>
+        <v>0.9951920217804423</v>
       </c>
       <c r="T9">
-        <v>1.000001636568037</v>
+        <v>0.9996710379884405</v>
       </c>
       <c r="U9">
-        <v>1.000005339799665</v>
+        <v>0.9989633325895049</v>
       </c>
       <c r="V9">
-        <v>0.9999934795632471</v>
+        <v>1.001226119074942</v>
       </c>
       <c r="W9">
-        <v>1.00000493050309</v>
+        <v>0.9990495971686455</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999366642839626</v>
+        <v>1.008991989892748</v>
       </c>
       <c r="D10">
-        <v>0.9999366642839626</v>
+        <v>1.008991989892748</v>
       </c>
       <c r="E10">
-        <v>1.00001802111613</v>
+        <v>0.9972516349133677</v>
       </c>
       <c r="F10">
-        <v>0.9999698430791834</v>
+        <v>1.004686702750918</v>
       </c>
       <c r="G10">
-        <v>0.9999767667035414</v>
+        <v>1.003339527871754</v>
       </c>
       <c r="H10">
-        <v>1.000054493898704</v>
+        <v>0.9916861184028923</v>
       </c>
       <c r="I10">
-        <v>1.00008256550549</v>
+        <v>0.987291275043914</v>
       </c>
       <c r="J10">
-        <v>1.000019500100688</v>
+        <v>0.9972712419565966</v>
       </c>
       <c r="K10">
-        <v>0.9999840245778081</v>
+        <v>1.002884963071548</v>
       </c>
       <c r="L10">
-        <v>1.00008256550549</v>
+        <v>0.987291275043914</v>
       </c>
       <c r="M10">
-        <v>0.9999366642839626</v>
+        <v>1.008991989892748</v>
       </c>
       <c r="N10">
-        <v>0.9999366642839626</v>
+        <v>1.008991989892748</v>
       </c>
       <c r="O10">
-        <v>0.9999840245778081</v>
+        <v>1.002884963071548</v>
       </c>
       <c r="P10">
-        <v>1.000033295041649</v>
+        <v>0.9950881190577309</v>
       </c>
       <c r="Q10">
-        <v>1.000001022846969</v>
+        <v>1.000068298992458</v>
       </c>
       <c r="R10">
-        <v>1.000001084789087</v>
+        <v>0.9997227426694032</v>
       </c>
       <c r="S10">
-        <v>1.000028203733143</v>
+        <v>0.9958092910096098</v>
       </c>
       <c r="T10">
-        <v>1.000001084789087</v>
+        <v>0.9997227426694032</v>
       </c>
       <c r="U10">
-        <v>1.000005318870848</v>
+        <v>0.9991049657303943</v>
       </c>
       <c r="V10">
-        <v>0.9999915879534708</v>
+        <v>1.001082370562865</v>
       </c>
       <c r="W10">
-        <v>1.000005234908188</v>
+        <v>0.9991754317379673</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9997612043993357</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="D11">
-        <v>0.9997612043993357</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="E11">
-        <v>1.000073745696942</v>
+        <v>0.9998112748307478</v>
       </c>
       <c r="F11">
-        <v>0.9998739225307673</v>
+        <v>1.000323532899877</v>
       </c>
       <c r="G11">
-        <v>0.9999111535341664</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="H11">
-        <v>1.000223095527916</v>
+        <v>0.9994290341405946</v>
       </c>
       <c r="I11">
-        <v>1.000341438385702</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="J11">
-        <v>1.000072309520992</v>
+        <v>0.9998173946887411</v>
       </c>
       <c r="K11">
-        <v>0.9999209240186009</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="L11">
-        <v>1.000341438385702</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="M11">
-        <v>0.9997612043993357</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="N11">
-        <v>0.9997612043993357</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="O11">
-        <v>0.9999209240186009</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="P11">
-        <v>1.000131181202151</v>
+        <v>0.9996659407459515</v>
       </c>
       <c r="Q11">
-        <v>0.9999973348577715</v>
+        <v>1.000009061614976</v>
       </c>
       <c r="R11">
-        <v>1.000007855601213</v>
+        <v>0.9999787796059191</v>
       </c>
       <c r="S11">
-        <v>1.000112036033748</v>
+        <v>0.9997143854408836</v>
       </c>
       <c r="T11">
-        <v>1.000007855601213</v>
+        <v>0.9999787796059191</v>
       </c>
       <c r="U11">
-        <v>1.000024328125145</v>
+        <v>0.9999369034121263</v>
       </c>
       <c r="V11">
-        <v>0.9999717033799833</v>
+        <v>1.000070414194872</v>
       </c>
       <c r="W11">
-        <v>1.000022224201803</v>
+        <v>0.9999428656807854</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000904523457336</v>
+        <v>1.000250757726504</v>
       </c>
       <c r="D12">
-        <v>1.000904523457336</v>
+        <v>1.000250757726504</v>
       </c>
       <c r="E12">
-        <v>0.9997217417687106</v>
+        <v>0.9999224372932645</v>
       </c>
       <c r="F12">
-        <v>1.000475262957306</v>
+        <v>1.000132658968109</v>
       </c>
       <c r="G12">
-        <v>1.000336325498456</v>
+        <v>1.000093328135331</v>
       </c>
       <c r="H12">
-        <v>0.9991582473367512</v>
+        <v>0.9997653586851385</v>
       </c>
       <c r="I12">
-        <v>0.9987123041058847</v>
+        <v>0.9996408184082052</v>
       </c>
       <c r="J12">
-        <v>0.9997258790799392</v>
+        <v>0.9999240953615273</v>
       </c>
       <c r="K12">
-        <v>1.000296024782096</v>
+        <v>1.000083438184209</v>
       </c>
       <c r="L12">
-        <v>0.9987123041058847</v>
+        <v>0.9996408184082052</v>
       </c>
       <c r="M12">
-        <v>1.000904523457336</v>
+        <v>1.000250757726504</v>
       </c>
       <c r="N12">
-        <v>1.000904523457336</v>
+        <v>1.000250757726504</v>
       </c>
       <c r="O12">
-        <v>1.000296024782096</v>
+        <v>1.000083438184209</v>
       </c>
       <c r="P12">
-        <v>0.9995041644439903</v>
+        <v>0.9998621282962072</v>
       </c>
       <c r="Q12">
-        <v>1.000008883275403</v>
+        <v>1.000002937738737</v>
       </c>
       <c r="R12">
-        <v>0.9999709507817721</v>
+        <v>0.9999916714396394</v>
       </c>
       <c r="S12">
-        <v>0.9995766902188971</v>
+        <v>0.9998822312952264</v>
       </c>
       <c r="T12">
-        <v>0.9999709507817721</v>
+        <v>0.9999916714396392</v>
       </c>
       <c r="U12">
-        <v>0.9999086485285067</v>
+        <v>0.9999743629030455</v>
       </c>
       <c r="V12">
-        <v>1.000107823514272</v>
+        <v>1.000029641867737</v>
       </c>
       <c r="W12">
-        <v>0.9999162886233099</v>
+        <v>0.9999766115952859</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000220137397194</v>
+        <v>1.000411120323383</v>
       </c>
       <c r="D13">
-        <v>1.000220137397194</v>
+        <v>1.000411120323383</v>
       </c>
       <c r="E13">
-        <v>0.9999226385451718</v>
+        <v>0.9998791163019365</v>
       </c>
       <c r="F13">
-        <v>1.000136254576551</v>
+        <v>1.000204098605037</v>
       </c>
       <c r="G13">
-        <v>1.000083939203447</v>
+        <v>1.000151652035918</v>
       </c>
       <c r="H13">
-        <v>0.9997657980361905</v>
+        <v>0.9996344063590862</v>
       </c>
       <c r="I13">
-        <v>0.9996364740418495</v>
+        <v>0.9994437594992617</v>
       </c>
       <c r="J13">
-        <v>0.9999352894761144</v>
+        <v>0.9998742460889821</v>
       </c>
       <c r="K13">
-        <v>1.000103377191377</v>
+        <v>1.000116396919785</v>
       </c>
       <c r="L13">
-        <v>0.9996364740418495</v>
+        <v>0.9994437594992617</v>
       </c>
       <c r="M13">
-        <v>1.000220137397194</v>
+        <v>1.000411120323383</v>
       </c>
       <c r="N13">
-        <v>1.000220137397194</v>
+        <v>1.000411120323383</v>
       </c>
       <c r="O13">
-        <v>1.000103377191377</v>
+        <v>1.000116396919785</v>
       </c>
       <c r="P13">
-        <v>0.9998699256166133</v>
+        <v>0.9997800782095236</v>
       </c>
       <c r="Q13">
-        <v>1.000013007868275</v>
+        <v>0.999997756610861</v>
       </c>
       <c r="R13">
-        <v>0.9999866628768066</v>
+        <v>0.9999904255808101</v>
       </c>
       <c r="S13">
-        <v>0.9998874965927994</v>
+        <v>0.9998130909069946</v>
       </c>
       <c r="T13">
-        <v>0.9999866628768066</v>
+        <v>0.9999904255808101</v>
       </c>
       <c r="U13">
-        <v>0.999970656793898</v>
+        <v>0.9999625982610917</v>
       </c>
       <c r="V13">
-        <v>1.000020552914557</v>
+        <v>1.00005230267355</v>
       </c>
       <c r="W13">
-        <v>0.9999754885584868</v>
+        <v>0.9999643495166738</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9173777296412537</v>
+        <v>1.001437348366088</v>
       </c>
       <c r="D14">
-        <v>0.9173777296412537</v>
+        <v>1.001437348366088</v>
       </c>
       <c r="E14">
-        <v>1.02672831878448</v>
+        <v>0.999550137761762</v>
       </c>
       <c r="F14">
-        <v>0.9537878256957285</v>
+        <v>1.000771669064283</v>
       </c>
       <c r="G14">
-        <v>0.968995417645736</v>
+        <v>1.000536106177489</v>
       </c>
       <c r="H14">
-        <v>1.080880441330878</v>
+        <v>0.9986389590058605</v>
       </c>
       <c r="I14">
-        <v>1.124442944769613</v>
+        <v>0.9979137104856531</v>
       </c>
       <c r="J14">
-        <v>1.024766309489313</v>
+        <v>0.9995660089874517</v>
       </c>
       <c r="K14">
-        <v>0.9686981865604244</v>
+        <v>1.000495423452439</v>
       </c>
       <c r="L14">
-        <v>1.124442944769613</v>
+        <v>0.9979137104856531</v>
       </c>
       <c r="M14">
-        <v>0.9173777296412537</v>
+        <v>1.001437348366088</v>
       </c>
       <c r="N14">
-        <v>0.9173777296412537</v>
+        <v>1.001437348366088</v>
       </c>
       <c r="O14">
-        <v>0.9686981865604244</v>
+        <v>1.000495423452439</v>
       </c>
       <c r="P14">
-        <v>1.046570565665019</v>
+        <v>0.9992045669690461</v>
       </c>
       <c r="Q14">
-        <v>0.9977132526724524</v>
+        <v>1.000022780607101</v>
       </c>
       <c r="R14">
-        <v>1.00350628699043</v>
+        <v>0.9999488274347268</v>
       </c>
       <c r="S14">
-        <v>1.039956483371506</v>
+        <v>0.9993197572332848</v>
       </c>
       <c r="T14">
-        <v>1.00350628699043</v>
+        <v>0.9999488274347268</v>
       </c>
       <c r="U14">
-        <v>1.009311794938943</v>
+        <v>0.9998491550164856</v>
       </c>
       <c r="V14">
-        <v>0.9909249818794048</v>
+        <v>1.000166793686406</v>
       </c>
       <c r="W14">
-        <v>1.008209646739678</v>
+        <v>0.9998636704126285</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9778055018278902</v>
+        <v>1.000519291939382</v>
       </c>
       <c r="D15">
-        <v>0.9778055018278902</v>
+        <v>1.000519291939382</v>
       </c>
       <c r="E15">
-        <v>1.007111222442479</v>
+        <v>0.9998376993696431</v>
       </c>
       <c r="F15">
-        <v>0.987732865589501</v>
+        <v>1.000278303024446</v>
       </c>
       <c r="G15">
-        <v>0.9916862453123849</v>
+        <v>1.000193635630451</v>
       </c>
       <c r="H15">
-        <v>1.021517523486465</v>
+        <v>0.9995089757457912</v>
       </c>
       <c r="I15">
-        <v>1.033071397338449</v>
+        <v>0.9992474495261396</v>
       </c>
       <c r="J15">
-        <v>1.006667162313775</v>
+        <v>0.9998431576993552</v>
       </c>
       <c r="K15">
-        <v>0.9918147868316272</v>
+        <v>1.000178242900643</v>
       </c>
       <c r="L15">
-        <v>1.033071397338449</v>
+        <v>0.9992474495261396</v>
       </c>
       <c r="M15">
-        <v>0.9778055018278902</v>
+        <v>1.000519291939382</v>
       </c>
       <c r="N15">
-        <v>0.9778055018278902</v>
+        <v>1.000519291939382</v>
       </c>
       <c r="O15">
-        <v>0.9918147868316272</v>
+        <v>1.000178242900643</v>
       </c>
       <c r="P15">
-        <v>1.012443092085038</v>
+        <v>0.9997128462133911</v>
       </c>
       <c r="Q15">
-        <v>0.9994630046370533</v>
+        <v>1.000007971135143</v>
       </c>
       <c r="R15">
-        <v>1.000897228665989</v>
+        <v>0.9999816614553879</v>
       </c>
       <c r="S15">
-        <v>1.010665802204185</v>
+        <v>0.9997544639321417</v>
       </c>
       <c r="T15">
-        <v>1.000897228665989</v>
+        <v>0.9999816614553879</v>
       </c>
       <c r="U15">
-        <v>1.002450727110112</v>
+        <v>0.9999456709339517</v>
       </c>
       <c r="V15">
-        <v>0.9975216820536673</v>
+        <v>1.000060395135038</v>
       </c>
       <c r="W15">
-        <v>1.002175838142822</v>
+        <v>0.9999508444794813</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.010084172450054</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="D16">
-        <v>1.010084172450054</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="E16">
-        <v>0.9968358646415026</v>
+        <v>0.9996867038607322</v>
       </c>
       <c r="F16">
-        <v>1.005430878622652</v>
+        <v>1.000537172378416</v>
       </c>
       <c r="G16">
-        <v>1.003762905506334</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="H16">
-        <v>0.9904269315648456</v>
+        <v>0.9990521520533125</v>
       </c>
       <c r="I16">
-        <v>0.9853215821751267</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="J16">
-        <v>0.9969568416882453</v>
+        <v>0.9996971014683653</v>
       </c>
       <c r="K16">
-        <v>1.003501669070067</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="L16">
-        <v>0.9853215821751267</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="M16">
-        <v>1.010084172450054</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="N16">
-        <v>1.010084172450054</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="O16">
-        <v>1.003501669070067</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="P16">
-        <v>0.9944116256225969</v>
+        <v>0.9994455993927625</v>
       </c>
       <c r="Q16">
-        <v>1.000168766855785</v>
+        <v>1.000015262031969</v>
       </c>
       <c r="R16">
-        <v>0.9996358078984159</v>
+        <v>0.9999646624551231</v>
       </c>
       <c r="S16">
-        <v>0.9952197052955655</v>
+        <v>0.9995259675487524</v>
       </c>
       <c r="T16">
-        <v>0.9996358078984159</v>
+        <v>0.9999646624551231</v>
       </c>
       <c r="U16">
-        <v>0.9989358220841876</v>
+        <v>0.9998951728065253</v>
       </c>
       <c r="V16">
-        <v>1.001165492157361</v>
+        <v>1.000116695961189</v>
       </c>
       <c r="W16">
-        <v>0.9990401057148535</v>
+        <v>0.9999051267449864</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.008144461666858</v>
+        <v>1.001918733648645</v>
       </c>
       <c r="D17">
-        <v>1.008144461666858</v>
+        <v>1.001918733648645</v>
       </c>
       <c r="E17">
-        <v>0.9974189458948226</v>
+        <v>0.9993993849063257</v>
       </c>
       <c r="F17">
-        <v>1.004440767491545</v>
+        <v>1.001030292302773</v>
       </c>
       <c r="G17">
-        <v>1.003044637412297</v>
+        <v>1.000715659089154</v>
       </c>
       <c r="H17">
-        <v>0.9921905935433261</v>
+        <v>0.9981828714558479</v>
       </c>
       <c r="I17">
-        <v>0.9880121840586821</v>
+        <v>0.9972145536025339</v>
       </c>
       <c r="J17">
-        <v>0.9975475114805114</v>
+        <v>0.9994206749742197</v>
       </c>
       <c r="K17">
-        <v>1.002911128997334</v>
+        <v>1.000661617207717</v>
       </c>
       <c r="L17">
-        <v>0.9880121840586821</v>
+        <v>0.9972145536025339</v>
       </c>
       <c r="M17">
-        <v>1.008144461666858</v>
+        <v>1.001918733648645</v>
       </c>
       <c r="N17">
-        <v>1.008144461666858</v>
+        <v>1.001918733648645</v>
       </c>
       <c r="O17">
-        <v>1.002911128997334</v>
+        <v>1.000661617207717</v>
       </c>
       <c r="P17">
-        <v>0.9954616565280083</v>
+        <v>0.9989380854051256</v>
       </c>
       <c r="Q17">
-        <v>1.000165037446079</v>
+        <v>1.000030501057022</v>
       </c>
       <c r="R17">
-        <v>0.9996892582409581</v>
+        <v>0.999931634819632</v>
       </c>
       <c r="S17">
-        <v>0.9961140863169464</v>
+        <v>0.9990918519055256</v>
       </c>
       <c r="T17">
-        <v>0.9996892582409581</v>
+        <v>0.999931634819632</v>
       </c>
       <c r="U17">
-        <v>0.9991216801544243</v>
+        <v>0.9997985723413054</v>
       </c>
       <c r="V17">
-        <v>1.000926236456911</v>
+        <v>1.000222604602773</v>
       </c>
       <c r="W17">
-        <v>0.999213778818172</v>
+        <v>0.9998179733984021</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004169720352327</v>
+        <v>1.00281271969319</v>
       </c>
       <c r="D18">
-        <v>1.004169720352327</v>
+        <v>1.00281271969319</v>
       </c>
       <c r="E18">
-        <v>0.998616785714026</v>
+        <v>0.9991189884681896</v>
       </c>
       <c r="F18">
-        <v>1.002405437751601</v>
+        <v>1.001511528261929</v>
       </c>
       <c r="G18">
-        <v>1.001572149530898</v>
+        <v>1.001049232646614</v>
       </c>
       <c r="H18">
-        <v>0.9958137883649655</v>
+        <v>0.9973345142714618</v>
       </c>
       <c r="I18">
-        <v>0.9935413284004607</v>
+        <v>0.9959138174707373</v>
       </c>
       <c r="J18">
-        <v>0.998757247950011</v>
+        <v>0.9991508663399331</v>
       </c>
       <c r="K18">
-        <v>1.001691202788368</v>
+        <v>1.000971707765211</v>
       </c>
       <c r="L18">
-        <v>0.9935413284004607</v>
+        <v>0.9959138174707373</v>
       </c>
       <c r="M18">
-        <v>1.004169720352327</v>
+        <v>1.00281271969319</v>
       </c>
       <c r="N18">
-        <v>1.004169720352327</v>
+        <v>1.00281271969319</v>
       </c>
       <c r="O18">
-        <v>1.001691202788368</v>
+        <v>1.000971707765211</v>
       </c>
       <c r="P18">
-        <v>0.9976162655944143</v>
+        <v>0.9984427626179742</v>
       </c>
       <c r="Q18">
-        <v>1.000153994251197</v>
+        <v>1.0000453481167</v>
       </c>
       <c r="R18">
-        <v>0.9998007505137183</v>
+        <v>0.9998994149763796</v>
       </c>
       <c r="S18">
-        <v>0.9979497723009515</v>
+        <v>0.9986681712347126</v>
       </c>
       <c r="T18">
-        <v>0.9998007505137183</v>
+        <v>0.9998994149763796</v>
       </c>
       <c r="U18">
-        <v>0.9995047593137952</v>
+        <v>0.9997043083493321</v>
       </c>
       <c r="V18">
-        <v>1.000437751521501</v>
+        <v>1.000325990618104</v>
       </c>
       <c r="W18">
-        <v>0.9995709576065821</v>
+        <v>0.9997329218646583</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004767525148526</v>
+        <v>1.000014027259726</v>
       </c>
       <c r="D19">
-        <v>1.004767525148526</v>
+        <v>1.000014027259726</v>
       </c>
       <c r="E19">
-        <v>0.9984080391203007</v>
+        <v>0.9999950790690144</v>
       </c>
       <c r="F19">
-        <v>1.002772584964027</v>
+        <v>1.000008662341226</v>
       </c>
       <c r="G19">
-        <v>1.001799806848815</v>
+        <v>1.000005346970733</v>
       </c>
       <c r="H19">
-        <v>0.9951818489742463</v>
+        <v>0.9999851071999895</v>
       </c>
       <c r="I19">
-        <v>0.9925610805022589</v>
+        <v>0.9999768859397967</v>
       </c>
       <c r="J19">
-        <v>0.9985812466613108</v>
+        <v>0.9999958754833161</v>
       </c>
       <c r="K19">
-        <v>1.001967588878295</v>
+        <v>1.000006556675965</v>
       </c>
       <c r="L19">
-        <v>0.9925610805022589</v>
+        <v>0.9999768859397967</v>
       </c>
       <c r="M19">
-        <v>1.004767525148526</v>
+        <v>1.000014027259726</v>
       </c>
       <c r="N19">
-        <v>1.004767525148526</v>
+        <v>1.000014027259726</v>
       </c>
       <c r="O19">
-        <v>1.001967588878295</v>
+        <v>1.000006556675965</v>
       </c>
       <c r="P19">
-        <v>0.9972643346902768</v>
+        <v>0.9999917213078808</v>
       </c>
       <c r="Q19">
-        <v>1.000187813999298</v>
+        <v>1.00000081787249</v>
       </c>
       <c r="R19">
-        <v>0.9997653981763598</v>
+        <v>0.9999991566251628</v>
       </c>
       <c r="S19">
-        <v>0.9976455695002847</v>
+        <v>0.999992840561592</v>
       </c>
       <c r="T19">
-        <v>0.9997653981763598</v>
+        <v>0.9999991566251628</v>
       </c>
       <c r="U19">
-        <v>0.999426058412345</v>
+        <v>0.9999981372361257</v>
       </c>
       <c r="V19">
-        <v>1.000494351759581</v>
+        <v>1.000001315240846</v>
       </c>
       <c r="W19">
-        <v>0.9995049651372223</v>
+        <v>0.9999984426174708</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.999998716431275</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="D20">
-        <v>0.999998716431275</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="E20">
-        <v>0.9999990737135249</v>
+        <v>0.9999980101189974</v>
       </c>
       <c r="F20">
-        <v>1.000002144468717</v>
+        <v>1.000003798179638</v>
       </c>
       <c r="G20">
-        <v>0.9999998093001783</v>
+        <v>1.000001474286615</v>
       </c>
       <c r="H20">
-        <v>0.9999971789531107</v>
+        <v>0.9999939677909798</v>
       </c>
       <c r="I20">
-        <v>0.9999949638095905</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="J20">
-        <v>1.000000664098818</v>
+        <v>0.9999991600970859</v>
       </c>
       <c r="K20">
-        <v>1.000003870245656</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="L20">
-        <v>0.9999949638095905</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="M20">
-        <v>0.999998716431275</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="N20">
-        <v>0.999998716431275</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="O20">
-        <v>1.000003870245656</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="P20">
-        <v>0.9999994170276234</v>
+        <v>0.9999972129698862</v>
       </c>
       <c r="Q20">
-        <v>1.000001471979591</v>
+        <v>1.000001088330187</v>
       </c>
       <c r="R20">
-        <v>0.9999991834955072</v>
+        <v>0.9999992809354072</v>
       </c>
       <c r="S20">
-        <v>0.9999993025895906</v>
+        <v>0.9999974786862565</v>
       </c>
       <c r="T20">
-        <v>0.9999991834955072</v>
+        <v>0.9999992809354072</v>
       </c>
       <c r="U20">
-        <v>0.9999991560500117</v>
+        <v>0.9999989632313048</v>
       </c>
       <c r="V20">
-        <v>0.9999990681262643</v>
+        <v>0.9999998539583338</v>
       </c>
       <c r="W20">
-        <v>0.9999995526276086</v>
+        <v>0.9999992816599421</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000047420499376</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="D21">
-        <v>1.000047420499376</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="E21">
-        <v>0.9999859551090933</v>
+        <v>1.000016449494549</v>
       </c>
       <c r="F21">
-        <v>1.000023757523516</v>
+        <v>0.9999719670381063</v>
       </c>
       <c r="G21">
-        <v>1.000017514546741</v>
+        <v>0.9999799690909666</v>
       </c>
       <c r="H21">
-        <v>0.9999575259458077</v>
+        <v>1.000049763565081</v>
       </c>
       <c r="I21">
-        <v>0.9999353169479763</v>
+        <v>1.000076043867933</v>
       </c>
       <c r="J21">
-        <v>0.9999855162742552</v>
+        <v>1.000016385131909</v>
       </c>
       <c r="K21">
-        <v>1.000013752951584</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="L21">
-        <v>0.9999353169479763</v>
+        <v>1.000076043867933</v>
       </c>
       <c r="M21">
-        <v>1.000047420499376</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="N21">
-        <v>1.000047420499376</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="O21">
-        <v>1.000013752951584</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="P21">
-        <v>0.9999745349497803</v>
+        <v>1.000029435543268</v>
       </c>
       <c r="Q21">
-        <v>0.9999998540303388</v>
+        <v>0.9999996383565756</v>
       </c>
       <c r="R21">
-        <v>0.9999988301329786</v>
+        <v>1.000001636568037</v>
       </c>
       <c r="S21">
-        <v>0.9999783416695512</v>
+        <v>1.000025106860361</v>
       </c>
       <c r="T21">
-        <v>0.9999988301329786</v>
+        <v>1.000001636568037</v>
       </c>
       <c r="U21">
-        <v>0.9999956113770073</v>
+        <v>1.000005339799665</v>
       </c>
       <c r="V21">
-        <v>1.000005973201481</v>
+        <v>0.9999934795632471</v>
       </c>
       <c r="W21">
-        <v>0.9999958449747938</v>
+        <v>1.00000493050309</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000151888687529</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="D22">
-        <v>1.000151888687529</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="E22">
-        <v>0.9999494324605084</v>
+        <v>1.00001802111613</v>
       </c>
       <c r="F22">
-        <v>1.000088008700229</v>
+        <v>0.9999698430791834</v>
       </c>
       <c r="G22">
-        <v>1.000057306075096</v>
+        <v>0.9999767667035414</v>
       </c>
       <c r="H22">
-        <v>0.9998469651017083</v>
+        <v>1.000054493898704</v>
       </c>
       <c r="I22">
-        <v>0.9997637967278141</v>
+        <v>1.00008256550549</v>
       </c>
       <c r="J22">
-        <v>0.9999547691253969</v>
+        <v>1.000019500100688</v>
       </c>
       <c r="K22">
-        <v>1.000062189058848</v>
+        <v>0.9999840245778081</v>
       </c>
       <c r="L22">
-        <v>0.9997637967278141</v>
+        <v>1.00008256550549</v>
       </c>
       <c r="M22">
-        <v>1.000151888687529</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="N22">
-        <v>1.000151888687529</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="O22">
-        <v>1.000062189058848</v>
+        <v>0.9999840245778081</v>
       </c>
       <c r="P22">
-        <v>0.999912992893331</v>
+        <v>1.000033295041649</v>
       </c>
       <c r="Q22">
-        <v>1.000005810759678</v>
+        <v>1.000001022846969</v>
       </c>
       <c r="R22">
-        <v>0.9999926248247304</v>
+        <v>1.000001084789087</v>
       </c>
       <c r="S22">
-        <v>0.9999251394157235</v>
+        <v>1.000028203733143</v>
       </c>
       <c r="T22">
-        <v>0.9999926248247304</v>
+        <v>1.000001084789087</v>
       </c>
       <c r="U22">
-        <v>0.9999818267336749</v>
+        <v>1.000005318870848</v>
       </c>
       <c r="V22">
-        <v>1.000015839124446</v>
+        <v>0.9999915879534708</v>
       </c>
       <c r="W22">
-        <v>0.9999842944921412</v>
+        <v>1.000005234908188</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9997612043993357</v>
+      </c>
+      <c r="D23">
+        <v>0.9997612043993357</v>
+      </c>
+      <c r="E23">
+        <v>1.000073745696942</v>
+      </c>
+      <c r="F23">
+        <v>0.9998739225307673</v>
+      </c>
+      <c r="G23">
+        <v>0.9999111535341664</v>
+      </c>
+      <c r="H23">
+        <v>1.000223095527916</v>
+      </c>
+      <c r="I23">
+        <v>1.000341438385702</v>
+      </c>
+      <c r="J23">
+        <v>1.000072309520992</v>
+      </c>
+      <c r="K23">
+        <v>0.9999209240186009</v>
+      </c>
+      <c r="L23">
+        <v>1.000341438385702</v>
+      </c>
+      <c r="M23">
+        <v>0.9997612043993357</v>
+      </c>
+      <c r="N23">
+        <v>0.9997612043993357</v>
+      </c>
+      <c r="O23">
+        <v>0.9999209240186009</v>
+      </c>
+      <c r="P23">
+        <v>1.000131181202151</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999973348577715</v>
+      </c>
+      <c r="R23">
+        <v>1.000007855601213</v>
+      </c>
+      <c r="S23">
+        <v>1.000112036033748</v>
+      </c>
+      <c r="T23">
+        <v>1.000007855601213</v>
+      </c>
+      <c r="U23">
+        <v>1.000024328125145</v>
+      </c>
+      <c r="V23">
+        <v>0.9999717033799833</v>
+      </c>
+      <c r="W23">
+        <v>1.000022224201803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="D24">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="E24">
+        <v>0.9997217417687106</v>
+      </c>
+      <c r="F24">
+        <v>1.000475262957306</v>
+      </c>
+      <c r="G24">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="H24">
+        <v>0.9991582473367512</v>
+      </c>
+      <c r="I24">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="J24">
+        <v>0.9997258790799392</v>
+      </c>
+      <c r="K24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="L24">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="M24">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="N24">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="O24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="P24">
+        <v>0.9995041644439903</v>
+      </c>
+      <c r="Q24">
+        <v>1.000008883275403</v>
+      </c>
+      <c r="R24">
+        <v>0.9999709507817721</v>
+      </c>
+      <c r="S24">
+        <v>0.9995766902188971</v>
+      </c>
+      <c r="T24">
+        <v>0.9999709507817721</v>
+      </c>
+      <c r="U24">
+        <v>0.9999086485285067</v>
+      </c>
+      <c r="V24">
+        <v>1.000107823514272</v>
+      </c>
+      <c r="W24">
+        <v>0.9999162886233099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="D25">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="E25">
+        <v>0.9999226385451718</v>
+      </c>
+      <c r="F25">
+        <v>1.000136254576551</v>
+      </c>
+      <c r="G25">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="H25">
+        <v>0.9997657980361905</v>
+      </c>
+      <c r="I25">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="J25">
+        <v>0.9999352894761144</v>
+      </c>
+      <c r="K25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="L25">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="M25">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="N25">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="O25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="P25">
+        <v>0.9998699256166133</v>
+      </c>
+      <c r="Q25">
+        <v>1.000013007868275</v>
+      </c>
+      <c r="R25">
+        <v>0.9999866628768066</v>
+      </c>
+      <c r="S25">
+        <v>0.9998874965927994</v>
+      </c>
+      <c r="T25">
+        <v>0.9999866628768066</v>
+      </c>
+      <c r="U25">
+        <v>0.999970656793898</v>
+      </c>
+      <c r="V25">
+        <v>1.000020552914557</v>
+      </c>
+      <c r="W25">
+        <v>0.9999754885584868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="D26">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="E26">
+        <v>1.02672831878448</v>
+      </c>
+      <c r="F26">
+        <v>0.9537878256957285</v>
+      </c>
+      <c r="G26">
+        <v>0.968995417645736</v>
+      </c>
+      <c r="H26">
+        <v>1.080880441330878</v>
+      </c>
+      <c r="I26">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="J26">
+        <v>1.024766309489313</v>
+      </c>
+      <c r="K26">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="L26">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="M26">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="N26">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="O26">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="P26">
+        <v>1.046570565665019</v>
+      </c>
+      <c r="Q26">
+        <v>0.9977132526724524</v>
+      </c>
+      <c r="R26">
+        <v>1.00350628699043</v>
+      </c>
+      <c r="S26">
+        <v>1.039956483371506</v>
+      </c>
+      <c r="T26">
+        <v>1.00350628699043</v>
+      </c>
+      <c r="U26">
+        <v>1.009311794938943</v>
+      </c>
+      <c r="V26">
+        <v>0.9909249818794048</v>
+      </c>
+      <c r="W26">
+        <v>1.008209646739678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="D27">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="E27">
+        <v>1.007111222442479</v>
+      </c>
+      <c r="F27">
+        <v>0.987732865589501</v>
+      </c>
+      <c r="G27">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="H27">
+        <v>1.021517523486465</v>
+      </c>
+      <c r="I27">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="J27">
+        <v>1.006667162313775</v>
+      </c>
+      <c r="K27">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="L27">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="M27">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="N27">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="O27">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="P27">
+        <v>1.012443092085038</v>
+      </c>
+      <c r="Q27">
+        <v>0.9994630046370533</v>
+      </c>
+      <c r="R27">
+        <v>1.000897228665989</v>
+      </c>
+      <c r="S27">
+        <v>1.010665802204185</v>
+      </c>
+      <c r="T27">
+        <v>1.000897228665989</v>
+      </c>
+      <c r="U27">
+        <v>1.002450727110112</v>
+      </c>
+      <c r="V27">
+        <v>0.9975216820536673</v>
+      </c>
+      <c r="W27">
+        <v>1.002175838142822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.010084172450054</v>
+      </c>
+      <c r="D28">
+        <v>1.010084172450054</v>
+      </c>
+      <c r="E28">
+        <v>0.9968358646415026</v>
+      </c>
+      <c r="F28">
+        <v>1.005430878622652</v>
+      </c>
+      <c r="G28">
+        <v>1.003762905506334</v>
+      </c>
+      <c r="H28">
+        <v>0.9904269315648456</v>
+      </c>
+      <c r="I28">
+        <v>0.9853215821751267</v>
+      </c>
+      <c r="J28">
+        <v>0.9969568416882453</v>
+      </c>
+      <c r="K28">
+        <v>1.003501669070067</v>
+      </c>
+      <c r="L28">
+        <v>0.9853215821751267</v>
+      </c>
+      <c r="M28">
+        <v>1.010084172450054</v>
+      </c>
+      <c r="N28">
+        <v>1.010084172450054</v>
+      </c>
+      <c r="O28">
+        <v>1.003501669070067</v>
+      </c>
+      <c r="P28">
+        <v>0.9944116256225969</v>
+      </c>
+      <c r="Q28">
+        <v>1.000168766855785</v>
+      </c>
+      <c r="R28">
+        <v>0.9996358078984159</v>
+      </c>
+      <c r="S28">
+        <v>0.9952197052955655</v>
+      </c>
+      <c r="T28">
+        <v>0.9996358078984159</v>
+      </c>
+      <c r="U28">
+        <v>0.9989358220841876</v>
+      </c>
+      <c r="V28">
+        <v>1.001165492157361</v>
+      </c>
+      <c r="W28">
+        <v>0.9990401057148535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.008144461666858</v>
+      </c>
+      <c r="D29">
+        <v>1.008144461666858</v>
+      </c>
+      <c r="E29">
+        <v>0.9974189458948226</v>
+      </c>
+      <c r="F29">
+        <v>1.004440767491545</v>
+      </c>
+      <c r="G29">
+        <v>1.003044637412297</v>
+      </c>
+      <c r="H29">
+        <v>0.9921905935433261</v>
+      </c>
+      <c r="I29">
+        <v>0.9880121840586821</v>
+      </c>
+      <c r="J29">
+        <v>0.9975475114805114</v>
+      </c>
+      <c r="K29">
+        <v>1.002911128997334</v>
+      </c>
+      <c r="L29">
+        <v>0.9880121840586821</v>
+      </c>
+      <c r="M29">
+        <v>1.008144461666858</v>
+      </c>
+      <c r="N29">
+        <v>1.008144461666858</v>
+      </c>
+      <c r="O29">
+        <v>1.002911128997334</v>
+      </c>
+      <c r="P29">
+        <v>0.9954616565280083</v>
+      </c>
+      <c r="Q29">
+        <v>1.000165037446079</v>
+      </c>
+      <c r="R29">
+        <v>0.9996892582409581</v>
+      </c>
+      <c r="S29">
+        <v>0.9961140863169464</v>
+      </c>
+      <c r="T29">
+        <v>0.9996892582409581</v>
+      </c>
+      <c r="U29">
+        <v>0.9991216801544243</v>
+      </c>
+      <c r="V29">
+        <v>1.000926236456911</v>
+      </c>
+      <c r="W29">
+        <v>0.999213778818172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.004169720352327</v>
+      </c>
+      <c r="D30">
+        <v>1.004169720352327</v>
+      </c>
+      <c r="E30">
+        <v>0.998616785714026</v>
+      </c>
+      <c r="F30">
+        <v>1.002405437751601</v>
+      </c>
+      <c r="G30">
+        <v>1.001572149530898</v>
+      </c>
+      <c r="H30">
+        <v>0.9958137883649655</v>
+      </c>
+      <c r="I30">
+        <v>0.9935413284004607</v>
+      </c>
+      <c r="J30">
+        <v>0.998757247950011</v>
+      </c>
+      <c r="K30">
+        <v>1.001691202788368</v>
+      </c>
+      <c r="L30">
+        <v>0.9935413284004607</v>
+      </c>
+      <c r="M30">
+        <v>1.004169720352327</v>
+      </c>
+      <c r="N30">
+        <v>1.004169720352327</v>
+      </c>
+      <c r="O30">
+        <v>1.001691202788368</v>
+      </c>
+      <c r="P30">
+        <v>0.9976162655944143</v>
+      </c>
+      <c r="Q30">
+        <v>1.000153994251197</v>
+      </c>
+      <c r="R30">
+        <v>0.9998007505137183</v>
+      </c>
+      <c r="S30">
+        <v>0.9979497723009515</v>
+      </c>
+      <c r="T30">
+        <v>0.9998007505137183</v>
+      </c>
+      <c r="U30">
+        <v>0.9995047593137952</v>
+      </c>
+      <c r="V30">
+        <v>1.000437751521501</v>
+      </c>
+      <c r="W30">
+        <v>0.9995709576065821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="D31">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="E31">
+        <v>0.9984080391203007</v>
+      </c>
+      <c r="F31">
+        <v>1.002772584964027</v>
+      </c>
+      <c r="G31">
+        <v>1.001799806848815</v>
+      </c>
+      <c r="H31">
+        <v>0.9951818489742463</v>
+      </c>
+      <c r="I31">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="J31">
+        <v>0.9985812466613108</v>
+      </c>
+      <c r="K31">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="L31">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="M31">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="N31">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="O31">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="P31">
+        <v>0.9972643346902768</v>
+      </c>
+      <c r="Q31">
+        <v>1.000187813999298</v>
+      </c>
+      <c r="R31">
+        <v>0.9997653981763598</v>
+      </c>
+      <c r="S31">
+        <v>0.9976455695002847</v>
+      </c>
+      <c r="T31">
+        <v>0.9997653981763598</v>
+      </c>
+      <c r="U31">
+        <v>0.999426058412345</v>
+      </c>
+      <c r="V31">
+        <v>1.000494351759581</v>
+      </c>
+      <c r="W31">
+        <v>0.9995049651372223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.010148663835616</v>
+      </c>
+      <c r="D32">
+        <v>1.010148663835616</v>
+      </c>
+      <c r="E32">
+        <v>0.9968587038356163</v>
+      </c>
+      <c r="F32">
+        <v>1.005373668630137</v>
+      </c>
+      <c r="G32">
+        <v>1.003777639178082</v>
+      </c>
+      <c r="H32">
+        <v>0.9904967827397261</v>
+      </c>
+      <c r="I32">
+        <v>0.98545166109589</v>
+      </c>
+      <c r="J32">
+        <v>0.996928424109589</v>
+      </c>
+      <c r="K32">
+        <v>1.003384094246575</v>
+      </c>
+      <c r="L32">
+        <v>0.98545166109589</v>
+      </c>
+      <c r="M32">
+        <v>1.010148663835616</v>
+      </c>
+      <c r="N32">
+        <v>1.010148663835616</v>
+      </c>
+      <c r="O32">
+        <v>1.003384094246575</v>
+      </c>
+      <c r="P32">
+        <v>0.9944178776712327</v>
+      </c>
+      <c r="Q32">
+        <v>1.000121399041096</v>
+      </c>
+      <c r="R32">
+        <v>0.9996614730593606</v>
+      </c>
+      <c r="S32">
+        <v>0.995231486392694</v>
+      </c>
+      <c r="T32">
+        <v>0.9996614730593606</v>
+      </c>
+      <c r="U32">
+        <v>0.9989607807534244</v>
+      </c>
+      <c r="V32">
+        <v>1.001198357369863</v>
+      </c>
+      <c r="W32">
+        <v>0.9990524547089039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9570999831578948</v>
+      </c>
+      <c r="D33">
+        <v>0.9570999831578948</v>
+      </c>
+      <c r="E33">
+        <v>1.013731058947368</v>
+      </c>
+      <c r="F33">
+        <v>0.9763192363157892</v>
+      </c>
+      <c r="G33">
+        <v>0.9839333421052632</v>
+      </c>
+      <c r="H33">
+        <v>1.041547952631579</v>
+      </c>
+      <c r="I33">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="J33">
+        <v>1.012890002105263</v>
+      </c>
+      <c r="K33">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="L33">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="M33">
+        <v>0.9570999831578948</v>
+      </c>
+      <c r="N33">
+        <v>0.9570999831578948</v>
+      </c>
+      <c r="O33">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="P33">
+        <v>1.024037461578947</v>
+      </c>
+      <c r="Q33">
+        <v>0.9989781194736843</v>
+      </c>
+      <c r="R33">
+        <v>1.00172496877193</v>
+      </c>
+      <c r="S33">
+        <v>1.020601994035088</v>
+      </c>
+      <c r="T33">
+        <v>1.00172496877193</v>
+      </c>
+      <c r="U33">
+        <v>1.00472649131579</v>
+      </c>
+      <c r="V33">
+        <v>0.9952011896842107</v>
+      </c>
+      <c r="W33">
+        <v>1.004199562302632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="D34">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="E34">
+        <v>0.9972457089473686</v>
+      </c>
+      <c r="F34">
+        <v>1.004710254736842</v>
+      </c>
+      <c r="G34">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="H34">
+        <v>0.9916676273684213</v>
+      </c>
+      <c r="I34">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="J34">
+        <v>0.9973029705263158</v>
+      </c>
+      <c r="K34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L34">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="M34">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="N34">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="O34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="P34">
+        <v>0.9951029713157893</v>
+      </c>
+      <c r="Q34">
+        <v>1.000102898421053</v>
+      </c>
+      <c r="R34">
+        <v>0.9997049489473685</v>
+      </c>
+      <c r="S34">
+        <v>0.9958172171929824</v>
+      </c>
+      <c r="T34">
+        <v>0.9997049489473685</v>
+      </c>
+      <c r="U34">
+        <v>0.9990901389473685</v>
+      </c>
+      <c r="V34">
+        <v>1.001053892</v>
+      </c>
+      <c r="W34">
+        <v>0.9991696080921053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.01721061867366</v>
+      </c>
+      <c r="D35">
+        <v>1.01721061867366</v>
+      </c>
+      <c r="E35">
+        <v>0.9942278872726231</v>
+      </c>
+      <c r="F35">
+        <v>1.010062672482393</v>
+      </c>
+      <c r="G35">
+        <v>1.006502703327612</v>
+      </c>
+      <c r="H35">
+        <v>0.9825300038760174</v>
+      </c>
+      <c r="I35">
+        <v>0.9730148195252727</v>
+      </c>
+      <c r="J35">
+        <v>0.994883595087829</v>
+      </c>
+      <c r="K35">
+        <v>1.007184772046092</v>
+      </c>
+      <c r="L35">
+        <v>0.9730148195252727</v>
+      </c>
+      <c r="M35">
+        <v>1.01721061867366</v>
+      </c>
+      <c r="N35">
+        <v>1.01721061867366</v>
+      </c>
+      <c r="O35">
+        <v>1.007184772046092</v>
+      </c>
+      <c r="P35">
+        <v>0.9900997957856823</v>
+      </c>
+      <c r="Q35">
+        <v>1.000706329659358</v>
+      </c>
+      <c r="R35">
+        <v>0.9991367367483415</v>
+      </c>
+      <c r="S35">
+        <v>0.9914758262813294</v>
+      </c>
+      <c r="T35">
+        <v>0.9991367367483415</v>
+      </c>
+      <c r="U35">
+        <v>0.9979095243794118</v>
+      </c>
+      <c r="V35">
+        <v>1.001769743238262</v>
+      </c>
+      <c r="W35">
+        <v>0.9982021340364375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="D36">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="E36">
+        <v>0.9999990737135249</v>
+      </c>
+      <c r="F36">
+        <v>1.000002144468717</v>
+      </c>
+      <c r="G36">
+        <v>0.9999998093001783</v>
+      </c>
+      <c r="H36">
+        <v>0.9999971789531107</v>
+      </c>
+      <c r="I36">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="J36">
+        <v>1.000000664098818</v>
+      </c>
+      <c r="K36">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="L36">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="M36">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="N36">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="O36">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="P36">
+        <v>0.9999994170276234</v>
+      </c>
+      <c r="Q36">
+        <v>1.000001471979591</v>
+      </c>
+      <c r="R36">
+        <v>0.9999991834955072</v>
+      </c>
+      <c r="S36">
+        <v>0.9999993025895906</v>
+      </c>
+      <c r="T36">
+        <v>0.9999991834955072</v>
+      </c>
+      <c r="U36">
+        <v>0.9999991560500117</v>
+      </c>
+      <c r="V36">
+        <v>0.9999990681262643</v>
+      </c>
+      <c r="W36">
+        <v>0.9999995526276086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="D37">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="E37">
+        <v>0.9999859551090933</v>
+      </c>
+      <c r="F37">
+        <v>1.000023757523516</v>
+      </c>
+      <c r="G37">
+        <v>1.000017514546741</v>
+      </c>
+      <c r="H37">
+        <v>0.9999575259458077</v>
+      </c>
+      <c r="I37">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="J37">
+        <v>0.9999855162742552</v>
+      </c>
+      <c r="K37">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="L37">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="M37">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="N37">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="O37">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="P37">
+        <v>0.9999745349497803</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999998540303388</v>
+      </c>
+      <c r="R37">
+        <v>0.9999988301329786</v>
+      </c>
+      <c r="S37">
+        <v>0.9999783416695512</v>
+      </c>
+      <c r="T37">
+        <v>0.9999988301329786</v>
+      </c>
+      <c r="U37">
+        <v>0.9999956113770073</v>
+      </c>
+      <c r="V37">
+        <v>1.000005973201481</v>
+      </c>
+      <c r="W37">
+        <v>0.9999958449747938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="D38">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="E38">
+        <v>0.9999494324605084</v>
+      </c>
+      <c r="F38">
+        <v>1.000088008700229</v>
+      </c>
+      <c r="G38">
+        <v>1.000057306075096</v>
+      </c>
+      <c r="H38">
+        <v>0.9998469651017083</v>
+      </c>
+      <c r="I38">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="J38">
+        <v>0.9999547691253969</v>
+      </c>
+      <c r="K38">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="L38">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="M38">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="N38">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="O38">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="P38">
+        <v>0.999912992893331</v>
+      </c>
+      <c r="Q38">
+        <v>1.000005810759678</v>
+      </c>
+      <c r="R38">
+        <v>0.9999926248247304</v>
+      </c>
+      <c r="S38">
+        <v>0.9999251394157235</v>
+      </c>
+      <c r="T38">
+        <v>0.9999926248247304</v>
+      </c>
+      <c r="U38">
+        <v>0.9999818267336749</v>
+      </c>
+      <c r="V38">
+        <v>1.000015839124446</v>
+      </c>
+      <c r="W38">
+        <v>0.9999842944921412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000348418772762</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000348418772762</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9998809882694061</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000208321064647</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000132109605388</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9996397609889439</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9994424800133056</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9998968688895661</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000152464205067</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9994424800133056</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000348418772762</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000348418772762</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000152464205067</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997974721091862</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000016726237236</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999811209970447</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998253108292595</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999811209970447</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.999956087815135</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.00003455400666</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999626764761356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00277958868162</v>
+      </c>
+      <c r="D40">
+        <v>1.00277958868162</v>
+      </c>
+      <c r="E40">
+        <v>0.9990661038265892</v>
+      </c>
+      <c r="F40">
+        <v>1.001628742768867</v>
+      </c>
+      <c r="G40">
+        <v>1.001050576334443</v>
+      </c>
+      <c r="H40">
+        <v>0.9971734266835937</v>
+      </c>
+      <c r="I40">
+        <v>0.9956330716692584</v>
+      </c>
+      <c r="J40">
+        <v>0.999174025531008</v>
+      </c>
+      <c r="K40">
+        <v>1.001165814238852</v>
+      </c>
+      <c r="L40">
+        <v>0.9956330716692584</v>
+      </c>
+      <c r="M40">
+        <v>1.00277958868162</v>
+      </c>
+      <c r="N40">
+        <v>1.00277958868162</v>
+      </c>
+      <c r="O40">
+        <v>1.001165814238852</v>
+      </c>
+      <c r="P40">
+        <v>0.9983994429540552</v>
+      </c>
+      <c r="Q40">
+        <v>1.000115959032721</v>
+      </c>
+      <c r="R40">
+        <v>0.9998594915299103</v>
+      </c>
+      <c r="S40">
+        <v>0.9986216632448999</v>
+      </c>
+      <c r="T40">
+        <v>0.9998594915299103</v>
+      </c>
+      <c r="U40">
+        <v>0.99966114460408</v>
+      </c>
+      <c r="V40">
+        <v>1.000284833419588</v>
+      </c>
+      <c r="W40">
+        <v>0.999708918716779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.014025636889133</v>
+      </c>
+      <c r="D41">
+        <v>1.014025636889133</v>
+      </c>
+      <c r="E41">
+        <v>0.9954768950717263</v>
+      </c>
+      <c r="F41">
+        <v>1.007814506161408</v>
+      </c>
+      <c r="G41">
+        <v>1.005260143856291</v>
+      </c>
+      <c r="H41">
+        <v>0.986313239837498</v>
+      </c>
+      <c r="I41">
+        <v>0.9789488385696962</v>
+      </c>
+      <c r="J41">
+        <v>0.9957928189123852</v>
+      </c>
+      <c r="K41">
+        <v>1.005267555457753</v>
+      </c>
+      <c r="L41">
+        <v>0.9789488385696962</v>
+      </c>
+      <c r="M41">
+        <v>1.014025636889133</v>
+      </c>
+      <c r="N41">
+        <v>1.014025636889133</v>
+      </c>
+      <c r="O41">
+        <v>1.005267555457753</v>
+      </c>
+      <c r="P41">
+        <v>0.9921081970137247</v>
+      </c>
+      <c r="Q41">
+        <v>1.00037222526474</v>
+      </c>
+      <c r="R41">
+        <v>0.9994140103055275</v>
+      </c>
+      <c r="S41">
+        <v>0.993231096366392</v>
+      </c>
+      <c r="T41">
+        <v>0.9994140103055273</v>
+      </c>
+      <c r="U41">
+        <v>0.9984297314970771</v>
+      </c>
+      <c r="V41">
+        <v>1.001548912575488</v>
+      </c>
+      <c r="W41">
+        <v>0.9986124543444863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.019577944782244</v>
+      </c>
+      <c r="D42">
+        <v>1.019577944782244</v>
+      </c>
+      <c r="E42">
+        <v>0.9936920195463567</v>
+      </c>
+      <c r="F42">
+        <v>1.010895900400192</v>
+      </c>
+      <c r="G42">
+        <v>1.007341240652009</v>
+      </c>
+      <c r="H42">
+        <v>0.9809123632444471</v>
+      </c>
+      <c r="I42">
+        <v>0.9706448737235179</v>
+      </c>
+      <c r="J42">
+        <v>0.9941261478276219</v>
+      </c>
+      <c r="K42">
+        <v>1.007334359798922</v>
+      </c>
+      <c r="L42">
+        <v>0.9706448737235179</v>
+      </c>
+      <c r="M42">
+        <v>1.019577944782244</v>
+      </c>
+      <c r="N42">
+        <v>1.019577944782244</v>
+      </c>
+      <c r="O42">
+        <v>1.007334359798922</v>
+      </c>
+      <c r="P42">
+        <v>0.98898961676122</v>
+      </c>
+      <c r="Q42">
+        <v>1.000513189672639</v>
+      </c>
+      <c r="R42">
+        <v>0.9991857261015613</v>
+      </c>
+      <c r="S42">
+        <v>0.9905570843562655</v>
+      </c>
+      <c r="T42">
+        <v>0.9991857261015614</v>
+      </c>
+      <c r="U42">
+        <v>0.9978122994627603</v>
+      </c>
+      <c r="V42">
+        <v>1.002165428526657</v>
+      </c>
+      <c r="W42">
+        <v>0.9980656062469138</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000519291939382</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="D3">
-        <v>0.9992474495261399</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="E3">
-        <v>1.000178242900643</v>
+        <v>0.9999980101189974</v>
       </c>
       <c r="F3">
-        <v>1.000519291939382</v>
+        <v>1.000003798179638</v>
       </c>
       <c r="G3">
-        <v>0.9998376993696431</v>
+        <v>1.000001474286615</v>
       </c>
       <c r="H3">
-        <v>1.000278303024446</v>
+        <v>0.9999939677909798</v>
       </c>
       <c r="I3">
-        <v>1.000519291939382</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="J3">
-        <v>0.9992474495261399</v>
+        <v>0.9999991600970859</v>
       </c>
       <c r="K3">
-        <v>0.9998431576993552</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="L3">
-        <v>1.000193635630451</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="M3">
-        <v>0.9995089757457912</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="N3">
-        <v>1.000519291939382</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="O3">
-        <v>1.000178242900643</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="P3">
-        <v>0.9997128462133912</v>
+        <v>0.9999972129698862</v>
       </c>
       <c r="Q3">
-        <v>1.000007971135143</v>
+        <v>1.000001088330187</v>
       </c>
       <c r="R3">
-        <v>0.9999816614553881</v>
+        <v>0.9999992809354072</v>
       </c>
       <c r="S3">
-        <v>0.9997544639321418</v>
+        <v>0.9999974786862565</v>
       </c>
       <c r="T3">
-        <v>0.9999816614553881</v>
+        <v>0.9999992809354072</v>
       </c>
       <c r="U3">
-        <v>0.9999456709339518</v>
+        <v>0.9999989632313048</v>
       </c>
       <c r="V3">
-        <v>1.000060395135038</v>
+        <v>0.9999998539583338</v>
       </c>
       <c r="W3">
-        <v>0.9999508444794813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999992816599421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001002788579844</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="D4">
-        <v>0.9985473785823196</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="E4">
-        <v>1.000343820203205</v>
+        <v>0.9990661038265892</v>
       </c>
       <c r="F4">
-        <v>1.001002788579844</v>
+        <v>1.001628742768867</v>
       </c>
       <c r="G4">
-        <v>0.9996867038607322</v>
+        <v>1.001050576334443</v>
       </c>
       <c r="H4">
-        <v>1.000537172378416</v>
+        <v>0.9971734266835937</v>
       </c>
       <c r="I4">
-        <v>1.001002788579844</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="J4">
-        <v>0.9985473785823196</v>
+        <v>0.999174025531008</v>
       </c>
       <c r="K4">
-        <v>0.9996971014683653</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="L4">
-        <v>1.000373896833696</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="M4">
-        <v>0.9990521520533124</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="N4">
-        <v>1.001002788579844</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="O4">
-        <v>1.000343820203205</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="P4">
-        <v>0.9994455993927625</v>
+        <v>0.9983994429540552</v>
       </c>
       <c r="Q4">
-        <v>1.000015262031969</v>
+        <v>1.000115959032721</v>
       </c>
       <c r="R4">
-        <v>0.9999646624551231</v>
+        <v>0.9998594915299103</v>
       </c>
       <c r="S4">
-        <v>0.9995259675487524</v>
+        <v>0.9986216632448999</v>
       </c>
       <c r="T4">
-        <v>0.9999646624551231</v>
+        <v>0.9998594915299103</v>
       </c>
       <c r="U4">
-        <v>0.9998951728065253</v>
+        <v>0.99966114460408</v>
       </c>
       <c r="V4">
-        <v>1.000116695961189</v>
+        <v>1.000284833419588</v>
       </c>
       <c r="W4">
-        <v>0.9999051267449863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.999708918716779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001918733648645</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="D5">
-        <v>0.9972145536025339</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="E5">
-        <v>1.000661617207717</v>
+        <v>0.9982690403458234</v>
       </c>
       <c r="F5">
-        <v>1.001918733648645</v>
+        <v>1.00300782628242</v>
       </c>
       <c r="G5">
-        <v>0.9993993849063257</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="H5">
-        <v>1.001030292302773</v>
+        <v>0.9947614552089312</v>
       </c>
       <c r="I5">
-        <v>1.001918733648645</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="J5">
-        <v>0.9972145536025339</v>
+        <v>0.9984382574783888</v>
       </c>
       <c r="K5">
-        <v>0.9994206749742197</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="L5">
-        <v>1.000715659089154</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="M5">
-        <v>0.9981828714558477</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="N5">
-        <v>1.001918733648645</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="O5">
-        <v>1.000661617207717</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="P5">
-        <v>0.9989380854051256</v>
+        <v>0.9970125489373198</v>
       </c>
       <c r="Q5">
-        <v>1.000030501057022</v>
+        <v>1.000186701646255</v>
       </c>
       <c r="R5">
-        <v>0.999931634819632</v>
+        <v>0.9997536575</v>
       </c>
       <c r="S5">
-        <v>0.9990918519055256</v>
+        <v>0.9974313794068209</v>
       </c>
       <c r="T5">
-        <v>0.999931634819632</v>
+        <v>0.9997536575</v>
       </c>
       <c r="U5">
-        <v>0.9997985723413054</v>
+        <v>0.9993825032114558</v>
       </c>
       <c r="V5">
-        <v>1.000222604602773</v>
+        <v>1.000553177494237</v>
       </c>
       <c r="W5">
-        <v>0.9998179733984019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9994637999324569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00281271969319</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="D6">
-        <v>0.9959138174707373</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="E6">
-        <v>1.000971707765211</v>
+        <v>0.9942278872726231</v>
       </c>
       <c r="F6">
-        <v>1.00281271969319</v>
+        <v>1.010062672482393</v>
       </c>
       <c r="G6">
-        <v>0.9991189884681896</v>
+        <v>1.006502703327612</v>
       </c>
       <c r="H6">
-        <v>1.001511528261929</v>
+        <v>0.9825300038760174</v>
       </c>
       <c r="I6">
-        <v>1.00281271969319</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="J6">
-        <v>0.9959138174707373</v>
+        <v>0.994883595087829</v>
       </c>
       <c r="K6">
-        <v>0.9991508663399331</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="L6">
-        <v>1.001049232646615</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="M6">
-        <v>0.9973345142714618</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="N6">
-        <v>1.00281271969319</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="O6">
-        <v>1.000971707765211</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="P6">
-        <v>0.9984427626179742</v>
+        <v>0.9900997957856823</v>
       </c>
       <c r="Q6">
-        <v>1.0000453481167</v>
+        <v>1.000706329659358</v>
       </c>
       <c r="R6">
-        <v>0.9998994149763796</v>
+        <v>0.9991367367483415</v>
       </c>
       <c r="S6">
-        <v>0.9986681712347126</v>
+        <v>0.9914758262813294</v>
       </c>
       <c r="T6">
-        <v>0.9998994149763796</v>
+        <v>0.9991367367483415</v>
       </c>
       <c r="U6">
-        <v>0.9997043083493321</v>
+        <v>0.9979095243794118</v>
       </c>
       <c r="V6">
-        <v>1.000325990618104</v>
+        <v>1.001769743238262</v>
       </c>
       <c r="W6">
-        <v>0.9997329218646585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9982021340364375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000014027259726</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="D7">
-        <v>0.9999768859397969</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="E7">
-        <v>1.000006556675965</v>
+        <v>0.9998112748307478</v>
       </c>
       <c r="F7">
-        <v>1.000014027259726</v>
+        <v>1.000323532899877</v>
       </c>
       <c r="G7">
-        <v>0.9999950790690144</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="H7">
-        <v>1.000008662341226</v>
+        <v>0.9994290341405946</v>
       </c>
       <c r="I7">
-        <v>1.000014027259726</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="J7">
-        <v>0.9999768859397969</v>
+        <v>0.9998173946887411</v>
       </c>
       <c r="K7">
-        <v>0.9999958754833161</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="L7">
-        <v>1.000005346970733</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="M7">
-        <v>0.9999851071999893</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="N7">
-        <v>1.000014027259726</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="O7">
-        <v>1.000006556675965</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="P7">
-        <v>0.9999917213078811</v>
+        <v>0.9996659407459515</v>
       </c>
       <c r="Q7">
-        <v>1.00000081787249</v>
+        <v>1.000009061614976</v>
       </c>
       <c r="R7">
-        <v>0.9999991566251628</v>
+        <v>0.9999787796059191</v>
       </c>
       <c r="S7">
-        <v>0.9999928405615922</v>
+        <v>0.9997143854408836</v>
       </c>
       <c r="T7">
-        <v>0.9999991566251628</v>
+        <v>0.9999787796059191</v>
       </c>
       <c r="U7">
-        <v>0.9999981372361257</v>
+        <v>0.9999369034121263</v>
       </c>
       <c r="V7">
-        <v>1.000001315240846</v>
+        <v>1.000070414194872</v>
       </c>
       <c r="W7">
-        <v>0.9999984426174708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999428656807854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000341686645</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="D8">
-        <v>0.9999902593983959</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="E8">
-        <v>1.000004166541377</v>
+        <v>0.9999859551090933</v>
       </c>
       <c r="F8">
-        <v>1.00000341686645</v>
+        <v>1.000023757523516</v>
       </c>
       <c r="G8">
-        <v>0.9999980101189974</v>
+        <v>1.000017514546741</v>
       </c>
       <c r="H8">
-        <v>1.000003798179638</v>
+        <v>0.9999575259458077</v>
       </c>
       <c r="I8">
-        <v>1.00000341686645</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="J8">
-        <v>0.9999902593983959</v>
+        <v>0.9999855162742552</v>
       </c>
       <c r="K8">
-        <v>0.9999991600970857</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="L8">
-        <v>1.000001474286615</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="M8">
-        <v>0.9999939677909797</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="N8">
-        <v>1.00000341686645</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="O8">
-        <v>1.000004166541377</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="P8">
-        <v>0.9999972129698862</v>
+        <v>0.9999745349497803</v>
       </c>
       <c r="Q8">
-        <v>1.000001088330187</v>
+        <v>0.9999998540303388</v>
       </c>
       <c r="R8">
-        <v>0.9999992809354072</v>
+        <v>0.9999988301329786</v>
       </c>
       <c r="S8">
-        <v>0.9999974786862565</v>
+        <v>0.9999783416695512</v>
       </c>
       <c r="T8">
-        <v>0.9999992809354072</v>
+        <v>0.9999988301329786</v>
       </c>
       <c r="U8">
-        <v>0.9999989632313048</v>
+        <v>0.9999956113770073</v>
       </c>
       <c r="V8">
-        <v>0.9999998539583338</v>
+        <v>1.000005973201481</v>
       </c>
       <c r="W8">
-        <v>0.9999992816599421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999958449747938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999460386175761</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="D9">
-        <v>1.000076043867933</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="E9">
-        <v>0.999982827218602</v>
+        <v>0.9996867038607322</v>
       </c>
       <c r="F9">
-        <v>0.9999460386175761</v>
+        <v>1.000537172378416</v>
       </c>
       <c r="G9">
-        <v>1.000016449494549</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="H9">
-        <v>0.9999719670381063</v>
+        <v>0.9990521520533125</v>
       </c>
       <c r="I9">
-        <v>0.9999460386175761</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="J9">
-        <v>1.000076043867933</v>
+        <v>0.9996971014683653</v>
       </c>
       <c r="K9">
-        <v>1.000016385131909</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="L9">
-        <v>0.9999799690909666</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="M9">
-        <v>1.000049763565081</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="N9">
-        <v>0.9999460386175761</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="O9">
-        <v>0.999982827218602</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="P9">
-        <v>1.000029435543267</v>
+        <v>0.9994455993927625</v>
       </c>
       <c r="Q9">
-        <v>0.9999996383565755</v>
+        <v>1.000015262031969</v>
       </c>
       <c r="R9">
-        <v>1.000001636568037</v>
+        <v>0.9999646624551231</v>
       </c>
       <c r="S9">
-        <v>1.000025106860361</v>
+        <v>0.9995259675487524</v>
       </c>
       <c r="T9">
-        <v>1.000001636568037</v>
+        <v>0.9999646624551231</v>
       </c>
       <c r="U9">
-        <v>1.000005339799665</v>
+        <v>0.9998951728065253</v>
       </c>
       <c r="V9">
-        <v>0.9999934795632471</v>
+        <v>1.000116695961189</v>
       </c>
       <c r="W9">
-        <v>1.00000493050309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999051267449864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999366642839623</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="D10">
-        <v>1.00008256550549</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="E10">
-        <v>0.9999840245778081</v>
+        <v>0.9941409938935658</v>
       </c>
       <c r="F10">
-        <v>0.9999366642839623</v>
+        <v>1.010215631453142</v>
       </c>
       <c r="G10">
-        <v>1.00001802111613</v>
+        <v>1.006597163777313</v>
       </c>
       <c r="H10">
-        <v>0.9999698430791834</v>
+        <v>0.9822669480184898</v>
       </c>
       <c r="I10">
-        <v>0.9999366642839623</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="J10">
-        <v>1.00008256550549</v>
+        <v>0.9948106991712363</v>
       </c>
       <c r="K10">
-        <v>1.000019500100688</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="L10">
-        <v>0.9999767667035414</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="M10">
-        <v>1.000054493898704</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="N10">
-        <v>0.9999366642839623</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="O10">
-        <v>0.9999840245778081</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="P10">
-        <v>1.000033295041649</v>
+        <v>0.989953549479196</v>
       </c>
       <c r="Q10">
-        <v>1.000001022846969</v>
+        <v>1.000720742876342</v>
       </c>
       <c r="R10">
-        <v>1.000001084789087</v>
+        <v>0.9991218543087567</v>
       </c>
       <c r="S10">
-        <v>1.000028203733143</v>
+        <v>0.991349364283986</v>
       </c>
       <c r="T10">
-        <v>1.000001084789087</v>
+        <v>0.9991218543087568</v>
       </c>
       <c r="U10">
-        <v>1.000005318870848</v>
+        <v>0.9978766392049591</v>
       </c>
       <c r="V10">
-        <v>0.9999915879534707</v>
+        <v>1.001793004157543</v>
       </c>
       <c r="W10">
-        <v>1.000005234908188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9981746249050021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9997612043993357</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="D11">
-        <v>1.000341438385702</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="E11">
-        <v>0.9999209240186009</v>
+        <v>0.9937445342286846</v>
       </c>
       <c r="F11">
-        <v>0.9997612043993357</v>
+        <v>1.010820742688307</v>
       </c>
       <c r="G11">
-        <v>1.000073745696942</v>
+        <v>1.007243956402805</v>
       </c>
       <c r="H11">
-        <v>0.9998739225307673</v>
+        <v>0.9810706172623433</v>
       </c>
       <c r="I11">
-        <v>0.9997612043993357</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="J11">
-        <v>1.000341438385702</v>
+        <v>0.9942185427922817</v>
       </c>
       <c r="K11">
-        <v>1.000072309520992</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="L11">
-        <v>0.9999111535341664</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="M11">
-        <v>1.000223095527916</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="N11">
-        <v>0.9997612043993357</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="O11">
-        <v>0.9999209240186009</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="P11">
-        <v>1.000131181202151</v>
+        <v>0.9891107033002311</v>
       </c>
       <c r="Q11">
-        <v>0.9999973348577715</v>
+        <v>1.000548759407239</v>
       </c>
       <c r="R11">
-        <v>1.000007855601213</v>
+        <v>0.9991726191899466</v>
       </c>
       <c r="S11">
-        <v>1.000112036033748</v>
+        <v>0.9906553136097157</v>
       </c>
       <c r="T11">
-        <v>1.000007855601213</v>
+        <v>0.9991726191899466</v>
       </c>
       <c r="U11">
-        <v>1.000024328125145</v>
+        <v>0.997815597949631</v>
       </c>
       <c r="V11">
-        <v>0.9999717033799833</v>
+        <v>1.00211176855358</v>
       </c>
       <c r="W11">
-        <v>1.000022224201803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9980770313680326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000904523457336</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="D12">
-        <v>0.998712304105885</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="E12">
-        <v>1.000296024782096</v>
+        <v>0.9980329613052652</v>
       </c>
       <c r="F12">
-        <v>1.000904523457336</v>
+        <v>1.003425960189472</v>
       </c>
       <c r="G12">
-        <v>0.9997217417687106</v>
+        <v>1.00222352711579</v>
       </c>
       <c r="H12">
-        <v>1.000475262957306</v>
+        <v>0.9940466560105244</v>
       </c>
       <c r="I12">
-        <v>1.000904523457336</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="J12">
-        <v>0.998712304105885</v>
+        <v>0.9982473748000009</v>
       </c>
       <c r="K12">
-        <v>0.9997258790799392</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="L12">
-        <v>1.000336325498456</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="M12">
-        <v>0.9991582473367511</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="N12">
-        <v>1.000904523457336</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="O12">
-        <v>1.000296024782096</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="P12">
-        <v>0.9995041644439904</v>
+        <v>0.9966200635157899</v>
       </c>
       <c r="Q12">
-        <v>1.000008883275403</v>
+        <v>1.00023242554737</v>
       </c>
       <c r="R12">
-        <v>0.9999709507817722</v>
+        <v>0.9997099474736845</v>
       </c>
       <c r="S12">
-        <v>0.9995766902188971</v>
+        <v>0.997091029445615</v>
       </c>
       <c r="T12">
-        <v>0.9999709507817722</v>
+        <v>0.9997099474736845</v>
       </c>
       <c r="U12">
-        <v>0.9999086485285068</v>
+        <v>0.9992907009315797</v>
       </c>
       <c r="V12">
-        <v>1.000107823514273</v>
+        <v>1.000610503823159</v>
       </c>
       <c r="W12">
-        <v>0.9999162886233099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9993882902302633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000220137397194</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="D13">
-        <v>0.9996364740418495</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="E13">
-        <v>1.000103377191377</v>
+        <v>1.001144935647974</v>
       </c>
       <c r="F13">
-        <v>1.000220137397194</v>
+        <v>0.9980195867313258</v>
       </c>
       <c r="G13">
-        <v>0.9999226385451718</v>
+        <v>0.9986739051297188</v>
       </c>
       <c r="H13">
-        <v>1.000136254576551</v>
+        <v>1.003464634267669</v>
       </c>
       <c r="I13">
-        <v>1.000220137397194</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="J13">
-        <v>0.9996364740418495</v>
+        <v>1.001058463083542</v>
       </c>
       <c r="K13">
-        <v>0.9999352894761145</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="L13">
-        <v>1.000083939203447</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="M13">
-        <v>0.9997657980361904</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="N13">
-        <v>1.000220137397194</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="O13">
-        <v>1.000103377191377</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="P13">
-        <v>0.9998699256166133</v>
+        <v>1.001993256709416</v>
       </c>
       <c r="Q13">
-        <v>1.000013007868275</v>
+        <v>0.9998998225928188</v>
       </c>
       <c r="R13">
-        <v>0.9999866628768066</v>
+        <v>1.000151305316481</v>
       </c>
       <c r="S13">
-        <v>0.9998874965927994</v>
+        <v>1.001710483022269</v>
       </c>
       <c r="T13">
-        <v>0.9999866628768066</v>
+        <v>1.000151305316481</v>
       </c>
       <c r="U13">
-        <v>0.999970656793898</v>
+        <v>1.000399712899354</v>
       </c>
       <c r="V13">
-        <v>1.000020552914557</v>
+        <v>0.999613250825606</v>
       </c>
       <c r="W13">
-        <v>0.9999754885584868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000351930101209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9173777296412537</v>
+        <v>1.0301398</v>
       </c>
       <c r="D14">
-        <v>1.124442944769613</v>
+        <v>1.0301398</v>
       </c>
       <c r="E14">
-        <v>0.9686981865604244</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="F14">
-        <v>0.9173777296412537</v>
+        <v>1.017656099999998</v>
       </c>
       <c r="G14">
-        <v>1.02672831878448</v>
+        <v>1.0113912</v>
       </c>
       <c r="H14">
-        <v>0.9537878256957285</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="I14">
-        <v>0.9173777296412537</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="J14">
-        <v>1.124442944769613</v>
+        <v>0.9910433000000007</v>
       </c>
       <c r="K14">
-        <v>1.024766309489313</v>
+        <v>1.012634</v>
       </c>
       <c r="L14">
-        <v>0.968995417645736</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="M14">
-        <v>1.080880441330878</v>
+        <v>1.0301398</v>
       </c>
       <c r="N14">
-        <v>0.9173777296412537</v>
+        <v>1.0301398</v>
       </c>
       <c r="O14">
-        <v>0.9686981865604244</v>
+        <v>1.012634</v>
       </c>
       <c r="P14">
-        <v>1.046570565665019</v>
+        <v>0.9826468999999998</v>
       </c>
       <c r="Q14">
-        <v>0.9977132526724524</v>
+        <v>1.001254875</v>
       </c>
       <c r="R14">
-        <v>1.00350628699043</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="S14">
-        <v>1.039956483371506</v>
+        <v>0.9850565166666668</v>
       </c>
       <c r="T14">
-        <v>1.00350628699043</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="U14">
-        <v>1.009311794938943</v>
+        <v>0.9963273375000002</v>
       </c>
       <c r="V14">
-        <v>0.9909249818794048</v>
+        <v>1.00308983</v>
       </c>
       <c r="W14">
-        <v>1.008209646739678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9968446774999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9778055018278902</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="D15">
-        <v>1.033071397338449</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="E15">
-        <v>0.991814786831627</v>
+        <v>1.040237</v>
       </c>
       <c r="F15">
-        <v>0.9778055018278902</v>
+        <v>0.93038935</v>
       </c>
       <c r="G15">
-        <v>1.007111222442479</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="H15">
-        <v>0.987732865589501</v>
+        <v>1.1217596</v>
       </c>
       <c r="I15">
-        <v>0.9778055018278902</v>
+        <v>1.1873941</v>
       </c>
       <c r="J15">
-        <v>1.033071397338449</v>
+        <v>1.0371642</v>
       </c>
       <c r="K15">
-        <v>1.006667162313775</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="L15">
-        <v>0.9916862453123849</v>
+        <v>1.1873941</v>
       </c>
       <c r="M15">
-        <v>1.021517523486465</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="N15">
-        <v>0.9778055018278902</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="O15">
-        <v>0.991814786831627</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="P15">
-        <v>1.012443092085038</v>
+        <v>1.07002695</v>
       </c>
       <c r="Q15">
-        <v>0.9994630046370532</v>
+        <v>0.9964484</v>
       </c>
       <c r="R15">
-        <v>1.000897228665989</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="S15">
-        <v>1.010665802204185</v>
+        <v>1.060096966666667</v>
       </c>
       <c r="T15">
-        <v>1.000897228665989</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="U15">
-        <v>1.002450727110112</v>
+        <v>1.01405889</v>
       </c>
       <c r="V15">
-        <v>0.9975216820536673</v>
+        <v>0.9864360440000001</v>
       </c>
       <c r="W15">
-        <v>1.002175838142821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.01237166625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999998716431275</v>
+        <v>1.0301398</v>
       </c>
       <c r="D16">
-        <v>0.9999949638095905</v>
+        <v>1.0301398</v>
       </c>
       <c r="E16">
-        <v>1.000003870245656</v>
+        <v>0.9898757500000001</v>
       </c>
       <c r="F16">
-        <v>0.999998716431275</v>
+        <v>1.0176561</v>
       </c>
       <c r="G16">
-        <v>0.9999990737135245</v>
+        <v>1.0113912</v>
       </c>
       <c r="H16">
-        <v>1.000002144468717</v>
+        <v>0.9693574700000001</v>
       </c>
       <c r="I16">
-        <v>0.999998716431275</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J16">
-        <v>0.9999949638095905</v>
+        <v>0.9910432999999998</v>
       </c>
       <c r="K16">
-        <v>1.000000664098818</v>
+        <v>1.012634</v>
       </c>
       <c r="L16">
-        <v>0.9999998093001783</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="M16">
-        <v>0.9999971789531104</v>
+        <v>1.0301398</v>
       </c>
       <c r="N16">
-        <v>0.999998716431275</v>
+        <v>1.0301398</v>
       </c>
       <c r="O16">
-        <v>1.000003870245656</v>
+        <v>1.012634</v>
       </c>
       <c r="P16">
-        <v>0.9999994170276234</v>
+        <v>0.9826469</v>
       </c>
       <c r="Q16">
-        <v>1.00000147197959</v>
+        <v>1.001254875</v>
       </c>
       <c r="R16">
-        <v>0.9999991834955072</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="S16">
-        <v>0.9999993025895905</v>
+        <v>0.9850565166666666</v>
       </c>
       <c r="T16">
-        <v>0.9999991834955072</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="U16">
-        <v>0.9999991560500116</v>
+        <v>0.9963273375</v>
       </c>
       <c r="V16">
-        <v>0.9999990681262643</v>
+        <v>1.00308983</v>
       </c>
       <c r="W16">
-        <v>0.9999995526276086</v>
+        <v>0.9968446774999999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000047420499376</v>
+        <v>0.91449344</v>
       </c>
       <c r="D17">
-        <v>0.9999353169479764</v>
+        <v>0.91449344</v>
       </c>
       <c r="E17">
-        <v>1.000013752951584</v>
+        <v>1.0276467</v>
       </c>
       <c r="F17">
-        <v>1.000047420499376</v>
+        <v>0.95220605</v>
       </c>
       <c r="G17">
-        <v>0.9999859551090933</v>
+        <v>0.96791626</v>
       </c>
       <c r="H17">
-        <v>1.000023757523516</v>
+        <v>1.0836591</v>
       </c>
       <c r="I17">
-        <v>1.000047420499376</v>
+        <v>1.1287105</v>
       </c>
       <c r="J17">
-        <v>0.9999353169479764</v>
+        <v>1.0256339</v>
       </c>
       <c r="K17">
-        <v>0.9999855162742552</v>
+        <v>0.96765335</v>
       </c>
       <c r="L17">
-        <v>1.000017514546741</v>
+        <v>1.1287105</v>
       </c>
       <c r="M17">
-        <v>0.9999575259458076</v>
+        <v>0.91449344</v>
       </c>
       <c r="N17">
-        <v>1.000047420499376</v>
+        <v>0.91449344</v>
       </c>
       <c r="O17">
-        <v>1.000013752951584</v>
+        <v>0.96765335</v>
       </c>
       <c r="P17">
-        <v>0.9999745349497804</v>
+        <v>1.048181925</v>
       </c>
       <c r="Q17">
-        <v>0.9999998540303388</v>
+        <v>0.997650025</v>
       </c>
       <c r="R17">
-        <v>0.9999988301329789</v>
+        <v>1.003619096666666</v>
       </c>
       <c r="S17">
-        <v>0.9999783416695514</v>
+        <v>1.04133685</v>
       </c>
       <c r="T17">
-        <v>0.9999988301329789</v>
+        <v>1.003619096666666</v>
       </c>
       <c r="U17">
-        <v>0.9999956113770074</v>
+        <v>1.0096259975</v>
       </c>
       <c r="V17">
-        <v>1.000005973201481</v>
+        <v>0.990599486</v>
       </c>
       <c r="W17">
-        <v>0.9999958449747938</v>
+        <v>1.0084899125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000151888687529</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="D18">
-        <v>0.9997637967278139</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="E18">
-        <v>1.000062189058848</v>
+        <v>0.9968587038356163</v>
       </c>
       <c r="F18">
-        <v>1.000151888687529</v>
+        <v>1.005373668630137</v>
       </c>
       <c r="G18">
-        <v>0.999949432460508</v>
+        <v>1.003777639178082</v>
       </c>
       <c r="H18">
-        <v>1.000088008700229</v>
+        <v>0.9904967827397261</v>
       </c>
       <c r="I18">
-        <v>1.000151888687529</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="J18">
-        <v>0.9997637967278139</v>
+        <v>0.996928424109589</v>
       </c>
       <c r="K18">
-        <v>0.9999547691253969</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="L18">
-        <v>1.000057306075096</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="M18">
-        <v>0.9998469651017078</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="N18">
-        <v>1.000151888687529</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="O18">
-        <v>1.000062189058848</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="P18">
-        <v>0.9999129928933309</v>
+        <v>0.9944178776712327</v>
       </c>
       <c r="Q18">
-        <v>1.000005810759678</v>
+        <v>1.000121399041096</v>
       </c>
       <c r="R18">
-        <v>0.9999926248247304</v>
+        <v>0.9996614730593606</v>
       </c>
       <c r="S18">
-        <v>0.9999251394157233</v>
+        <v>0.995231486392694</v>
       </c>
       <c r="T18">
-        <v>0.9999926248247304</v>
+        <v>0.9996614730593606</v>
       </c>
       <c r="U18">
-        <v>0.9999818267336749</v>
+        <v>0.9989607807534244</v>
       </c>
       <c r="V18">
-        <v>1.000015839124446</v>
+        <v>1.001198357369863</v>
       </c>
       <c r="W18">
-        <v>0.9999842944921411</v>
+        <v>0.9990524547089039</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000348418772762</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="D19">
-        <v>0.9994424800133056</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="E19">
-        <v>1.000152464205067</v>
+        <v>1.013731058947368</v>
       </c>
       <c r="F19">
-        <v>1.000348418772762</v>
+        <v>0.9763192363157892</v>
       </c>
       <c r="G19">
-        <v>0.9998809882694061</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="H19">
-        <v>1.000208321064647</v>
+        <v>1.041547952631579</v>
       </c>
       <c r="I19">
-        <v>1.000348418772762</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="J19">
-        <v>0.9994424800133056</v>
+        <v>1.012890002105263</v>
       </c>
       <c r="K19">
-        <v>0.9998968688895661</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="L19">
-        <v>1.000132109605388</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="M19">
-        <v>0.9996397609889439</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="N19">
-        <v>1.000348418772762</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="O19">
-        <v>1.000152464205067</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="P19">
-        <v>0.9997974721091862</v>
+        <v>1.024037461578947</v>
       </c>
       <c r="Q19">
-        <v>1.000016726237236</v>
+        <v>0.9989781194736843</v>
       </c>
       <c r="R19">
-        <v>0.9999811209970447</v>
+        <v>1.00172496877193</v>
       </c>
       <c r="S19">
-        <v>0.9998253108292595</v>
+        <v>1.020601994035088</v>
       </c>
       <c r="T19">
-        <v>0.9999811209970447</v>
+        <v>1.00172496877193</v>
       </c>
       <c r="U19">
-        <v>0.999956087815135</v>
+        <v>1.00472649131579</v>
       </c>
       <c r="V19">
-        <v>1.00003455400666</v>
+        <v>0.9952011896842107</v>
       </c>
       <c r="W19">
-        <v>0.9999626764761356</v>
+        <v>1.004199562302632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="D20">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="E20">
+        <v>0.9972457089473686</v>
+      </c>
+      <c r="F20">
+        <v>1.004710254736842</v>
+      </c>
+      <c r="G20">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="H20">
+        <v>0.9916676273684213</v>
+      </c>
+      <c r="I20">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="J20">
+        <v>0.9973029705263158</v>
+      </c>
+      <c r="K20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L20">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="M20">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="N20">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="O20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="P20">
+        <v>0.9951029713157893</v>
+      </c>
+      <c r="Q20">
+        <v>1.000102898421053</v>
+      </c>
+      <c r="R20">
+        <v>0.9997049489473685</v>
+      </c>
+      <c r="S20">
+        <v>0.9958172171929824</v>
+      </c>
+      <c r="T20">
+        <v>0.9997049489473685</v>
+      </c>
+      <c r="U20">
+        <v>0.9990901389473685</v>
+      </c>
+      <c r="V20">
+        <v>1.001053892</v>
+      </c>
+      <c r="W20">
+        <v>0.9991696080921053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="D21">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="E21">
+        <v>1.02672831878448</v>
+      </c>
+      <c r="F21">
+        <v>0.9537878256957285</v>
+      </c>
+      <c r="G21">
+        <v>0.968995417645736</v>
+      </c>
+      <c r="H21">
+        <v>1.080880441330878</v>
+      </c>
+      <c r="I21">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="J21">
+        <v>1.024766309489313</v>
+      </c>
+      <c r="K21">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="L21">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="M21">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="N21">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="O21">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="P21">
+        <v>1.046570565665019</v>
+      </c>
+      <c r="Q21">
+        <v>0.9977132526724524</v>
+      </c>
+      <c r="R21">
+        <v>1.00350628699043</v>
+      </c>
+      <c r="S21">
+        <v>1.039956483371506</v>
+      </c>
+      <c r="T21">
+        <v>1.00350628699043</v>
+      </c>
+      <c r="U21">
+        <v>1.009311794938943</v>
+      </c>
+      <c r="V21">
+        <v>0.9909249818794048</v>
+      </c>
+      <c r="W21">
+        <v>1.008209646739678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="D22">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="E22">
+        <v>1.007111222442479</v>
+      </c>
+      <c r="F22">
+        <v>0.987732865589501</v>
+      </c>
+      <c r="G22">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="H22">
+        <v>1.021517523486465</v>
+      </c>
+      <c r="I22">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="J22">
+        <v>1.006667162313775</v>
+      </c>
+      <c r="K22">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="L22">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="M22">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="N22">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="O22">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="P22">
+        <v>1.012443092085038</v>
+      </c>
+      <c r="Q22">
+        <v>0.9994630046370533</v>
+      </c>
+      <c r="R22">
+        <v>1.000897228665989</v>
+      </c>
+      <c r="S22">
+        <v>1.010665802204185</v>
+      </c>
+      <c r="T22">
+        <v>1.000897228665989</v>
+      </c>
+      <c r="U22">
+        <v>1.002450727110112</v>
+      </c>
+      <c r="V22">
+        <v>0.9975216820536673</v>
+      </c>
+      <c r="W22">
+        <v>1.002175838142822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="D23">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="E23">
+        <v>0.9997217417687106</v>
+      </c>
+      <c r="F23">
+        <v>1.000475262957306</v>
+      </c>
+      <c r="G23">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="H23">
+        <v>0.9991582473367512</v>
+      </c>
+      <c r="I23">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="J23">
+        <v>0.9997258790799392</v>
+      </c>
+      <c r="K23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="L23">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="M23">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="N23">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="O23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="P23">
+        <v>0.9995041644439903</v>
+      </c>
+      <c r="Q23">
+        <v>1.000008883275403</v>
+      </c>
+      <c r="R23">
+        <v>0.9999709507817721</v>
+      </c>
+      <c r="S23">
+        <v>0.9995766902188971</v>
+      </c>
+      <c r="T23">
+        <v>0.9999709507817721</v>
+      </c>
+      <c r="U23">
+        <v>0.9999086485285067</v>
+      </c>
+      <c r="V23">
+        <v>1.000107823514272</v>
+      </c>
+      <c r="W23">
+        <v>0.9999162886233099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="D24">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="E24">
+        <v>0.9999226385451718</v>
+      </c>
+      <c r="F24">
+        <v>1.000136254576551</v>
+      </c>
+      <c r="G24">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="H24">
+        <v>0.9997657980361905</v>
+      </c>
+      <c r="I24">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="J24">
+        <v>0.9999352894761144</v>
+      </c>
+      <c r="K24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="L24">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="M24">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="N24">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="O24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="P24">
+        <v>0.9998699256166133</v>
+      </c>
+      <c r="Q24">
+        <v>1.000013007868275</v>
+      </c>
+      <c r="R24">
+        <v>0.9999866628768066</v>
+      </c>
+      <c r="S24">
+        <v>0.9998874965927994</v>
+      </c>
+      <c r="T24">
+        <v>0.9999866628768066</v>
+      </c>
+      <c r="U24">
+        <v>0.999970656793898</v>
+      </c>
+      <c r="V24">
+        <v>1.000020552914557</v>
+      </c>
+      <c r="W24">
+        <v>0.9999754885584868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.065425904135564</v>
+      </c>
+      <c r="D25">
+        <v>1.065425904135564</v>
+      </c>
+      <c r="E25">
+        <v>0.9791658402561939</v>
+      </c>
+      <c r="F25">
+        <v>1.035887097117682</v>
+      </c>
+      <c r="G25">
+        <v>1.024479788244299</v>
+      </c>
+      <c r="H25">
+        <v>0.9369610312648234</v>
+      </c>
+      <c r="I25">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="J25">
+        <v>0.9803195057208053</v>
+      </c>
+      <c r="K25">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="L25">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="M25">
+        <v>1.065425904135564</v>
+      </c>
+      <c r="N25">
+        <v>1.065425904135564</v>
+      </c>
+      <c r="O25">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="P25">
+        <v>0.9634450848181124</v>
+      </c>
+      <c r="Q25">
+        <v>1.001438360072551</v>
+      </c>
+      <c r="R25">
+        <v>0.9974386912572631</v>
+      </c>
+      <c r="S25">
+        <v>0.9686853366308062</v>
+      </c>
+      <c r="T25">
+        <v>0.9974386912572631</v>
+      </c>
+      <c r="U25">
+        <v>0.9928704785069958</v>
+      </c>
+      <c r="V25">
+        <v>1.007381563632709</v>
+      </c>
+      <c r="W25">
+        <v>0.993641167046949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.01712833877372</v>
+      </c>
+      <c r="D26">
+        <v>1.01712833877372</v>
+      </c>
+      <c r="E26">
+        <v>0.9943730471157932</v>
+      </c>
+      <c r="F26">
+        <v>1.009763624941987</v>
+      </c>
+      <c r="G26">
+        <v>1.006446150929852</v>
+      </c>
+      <c r="H26">
+        <v>0.98297127623034</v>
+      </c>
+      <c r="I26">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="J26">
+        <v>0.9948835981442403</v>
+      </c>
+      <c r="K26">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="L26">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="M26">
+        <v>1.01712833877372</v>
+      </c>
+      <c r="N26">
+        <v>1.01712833877372</v>
+      </c>
+      <c r="O26">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="P26">
+        <v>0.9902617346130331</v>
+      </c>
+      <c r="Q26">
+        <v>1.000570715588143</v>
+      </c>
+      <c r="R26">
+        <v>0.9992172693332622</v>
+      </c>
+      <c r="S26">
+        <v>0.991632172113953</v>
+      </c>
+      <c r="T26">
+        <v>0.9992172693332622</v>
+      </c>
+      <c r="U26">
+        <v>0.998006213778895</v>
+      </c>
+      <c r="V26">
+        <v>1.00183063877786</v>
+      </c>
+      <c r="W26">
+        <v>0.99826118817025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="D27">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="E27">
+        <v>0.9994029320508424</v>
+      </c>
+      <c r="F27">
+        <v>1.001027625541872</v>
+      </c>
+      <c r="G27">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="H27">
+        <v>0.998193440110074</v>
+      </c>
+      <c r="I27">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="J27">
+        <v>0.9994336170674225</v>
+      </c>
+      <c r="K27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="L27">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="M27">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="N27">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="O27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="P27">
+        <v>0.9989507889747733</v>
+      </c>
+      <c r="Q27">
+        <v>1.000039057776782</v>
+      </c>
+      <c r="R27">
+        <v>0.9999276757694701</v>
+      </c>
+      <c r="S27">
+        <v>0.999101503333463</v>
+      </c>
+      <c r="T27">
+        <v>0.9999276757694701</v>
+      </c>
+      <c r="U27">
+        <v>0.9997964898398131</v>
+      </c>
+      <c r="V27">
+        <v>1.000213481743623</v>
+      </c>
+      <c r="W27">
+        <v>0.9998180228553908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="D28">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="E28">
+        <v>1.000612443736455</v>
+      </c>
+      <c r="F28">
+        <v>0.9989239768523691</v>
+      </c>
+      <c r="G28">
+        <v>0.9993294088065403</v>
+      </c>
+      <c r="H28">
+        <v>1.001853992767916</v>
+      </c>
+      <c r="I28">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="J28">
+        <v>1.000519567015577</v>
+      </c>
+      <c r="K28">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="L28">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="M28">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="N28">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="O28">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="P28">
+        <v>1.001034687193565</v>
+      </c>
+      <c r="Q28">
+        <v>0.999903702447299</v>
+      </c>
+      <c r="R28">
+        <v>1.000102248395809</v>
+      </c>
+      <c r="S28">
+        <v>1.000893939374529</v>
+      </c>
+      <c r="T28">
+        <v>1.000102248395809</v>
+      </c>
+      <c r="U28">
+        <v>1.000229797230971</v>
+      </c>
+      <c r="V28">
+        <v>0.9998313119448357</v>
+      </c>
+      <c r="W28">
+        <v>1.000193266795786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9920514845653239</v>
+      </c>
+      <c r="D29">
+        <v>0.9920514845653239</v>
+      </c>
+      <c r="E29">
+        <v>1.002642346765355</v>
+      </c>
+      <c r="F29">
+        <v>0.9954026816081348</v>
+      </c>
+      <c r="G29">
+        <v>0.9970018749264977</v>
+      </c>
+      <c r="H29">
+        <v>1.007997016724701</v>
+      </c>
+      <c r="I29">
+        <v>1.0123409737376</v>
+      </c>
+      <c r="J29">
+        <v>1.002367817884039</v>
+      </c>
+      <c r="K29">
+        <v>0.9967579196442231</v>
+      </c>
+      <c r="L29">
+        <v>1.0123409737376</v>
+      </c>
+      <c r="M29">
+        <v>0.9920514845653239</v>
+      </c>
+      <c r="N29">
+        <v>0.9920514845653239</v>
+      </c>
+      <c r="O29">
+        <v>0.9967579196442231</v>
+      </c>
+      <c r="P29">
+        <v>1.004549446690911</v>
+      </c>
+      <c r="Q29">
+        <v>0.9997001332047889</v>
+      </c>
+      <c r="R29">
+        <v>1.000383459315715</v>
+      </c>
+      <c r="S29">
+        <v>1.003913746715726</v>
+      </c>
+      <c r="T29">
+        <v>1.000383459315716</v>
+      </c>
+      <c r="U29">
+        <v>1.000948181178125</v>
+      </c>
+      <c r="V29">
+        <v>0.9991688418555651</v>
+      </c>
+      <c r="W29">
+        <v>1.000820264481984</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00277958868162</v>
+        <v>1.00498667424703</v>
       </c>
       <c r="D4">
-        <v>1.00277958868162</v>
+        <v>1.00498667424703</v>
       </c>
       <c r="E4">
-        <v>0.9990661038265892</v>
+        <v>0.9983515112251989</v>
       </c>
       <c r="F4">
-        <v>1.001628742768867</v>
+        <v>1.002864485424185</v>
       </c>
       <c r="G4">
-        <v>1.001050576334443</v>
+        <v>1.001878931611703</v>
       </c>
       <c r="H4">
-        <v>0.9971734266835937</v>
+        <v>0.9950110452929396</v>
       </c>
       <c r="I4">
-        <v>0.9956330716692584</v>
+        <v>0.9923057148114121</v>
       </c>
       <c r="J4">
-        <v>0.999174025531008</v>
+        <v>0.9985125696001621</v>
       </c>
       <c r="K4">
-        <v>1.001165814238852</v>
+        <v>1.002003925322815</v>
       </c>
       <c r="L4">
-        <v>0.9956330716692584</v>
+        <v>0.9923057148114121</v>
       </c>
       <c r="M4">
-        <v>1.00277958868162</v>
+        <v>1.00498667424703</v>
       </c>
       <c r="N4">
-        <v>1.00277958868162</v>
+        <v>1.00498667424703</v>
       </c>
       <c r="O4">
-        <v>1.001165814238852</v>
+        <v>1.002003925322815</v>
       </c>
       <c r="P4">
-        <v>0.9983994429540552</v>
+        <v>0.9971548200671135</v>
       </c>
       <c r="Q4">
-        <v>1.000115959032721</v>
+        <v>1.000177718274007</v>
       </c>
       <c r="R4">
-        <v>0.9998594915299103</v>
+        <v>0.9997654381270856</v>
       </c>
       <c r="S4">
-        <v>0.9986216632448999</v>
+        <v>0.9975537171198087</v>
       </c>
       <c r="T4">
-        <v>0.9998594915299103</v>
+        <v>0.9997654381270856</v>
       </c>
       <c r="U4">
-        <v>0.99966114460408</v>
+        <v>0.999411956401614</v>
       </c>
       <c r="V4">
-        <v>1.000284833419588</v>
+        <v>1.000526899970697</v>
       </c>
       <c r="W4">
-        <v>0.999708918716779</v>
+        <v>0.9994893571919307</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00523587462536</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="D5">
-        <v>1.00523587462536</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="E5">
-        <v>0.9982690403458234</v>
+        <v>0.9968226724616092</v>
       </c>
       <c r="F5">
-        <v>1.00300782628242</v>
+        <v>1.005425666555968</v>
       </c>
       <c r="G5">
-        <v>1.001972847644092</v>
+        <v>1.00384338652565</v>
       </c>
       <c r="H5">
-        <v>0.9947614552089312</v>
+        <v>0.9903881835754523</v>
       </c>
       <c r="I5">
-        <v>0.9919207349279539</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="J5">
-        <v>0.9984382574783888</v>
+        <v>0.9968662305875478</v>
       </c>
       <c r="K5">
-        <v>1.002104362946686</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="L5">
-        <v>0.9919207349279539</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="M5">
-        <v>1.00523587462536</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="N5">
-        <v>1.00523587462536</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="O5">
-        <v>1.002104362946686</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="P5">
-        <v>0.9970125489373198</v>
+        <v>0.9943356106019539</v>
       </c>
       <c r="Q5">
-        <v>1.000186701646255</v>
+        <v>1.000098094702474</v>
       </c>
       <c r="R5">
-        <v>0.9997536575</v>
+        <v>0.9996699164484149</v>
       </c>
       <c r="S5">
-        <v>0.9974313794068209</v>
+        <v>0.9951646312218388</v>
       </c>
       <c r="T5">
-        <v>0.9997536575</v>
+        <v>0.9996699164484149</v>
       </c>
       <c r="U5">
-        <v>0.9993825032114558</v>
+        <v>0.9989581054517134</v>
       </c>
       <c r="V5">
-        <v>1.000553177494237</v>
+        <v>1.001234189989638</v>
       </c>
       <c r="W5">
-        <v>0.9994637999324569</v>
+        <v>0.9990444861314339</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.01721061867366</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="D6">
-        <v>1.01721061867366</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="E6">
-        <v>0.9942278872726231</v>
+        <v>0.9990661038265892</v>
       </c>
       <c r="F6">
-        <v>1.010062672482393</v>
+        <v>1.001628742768867</v>
       </c>
       <c r="G6">
-        <v>1.006502703327612</v>
+        <v>1.001050576334443</v>
       </c>
       <c r="H6">
-        <v>0.9825300038760174</v>
+        <v>0.9971734266835937</v>
       </c>
       <c r="I6">
-        <v>0.9730148195252727</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="J6">
-        <v>0.994883595087829</v>
+        <v>0.999174025531008</v>
       </c>
       <c r="K6">
-        <v>1.007184772046092</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="L6">
-        <v>0.9730148195252727</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="M6">
-        <v>1.01721061867366</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="N6">
-        <v>1.01721061867366</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="O6">
-        <v>1.007184772046092</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="P6">
-        <v>0.9900997957856823</v>
+        <v>0.9983994429540552</v>
       </c>
       <c r="Q6">
-        <v>1.000706329659358</v>
+        <v>1.000115959032721</v>
       </c>
       <c r="R6">
-        <v>0.9991367367483415</v>
+        <v>0.9998594915299103</v>
       </c>
       <c r="S6">
-        <v>0.9914758262813294</v>
+        <v>0.9986216632448999</v>
       </c>
       <c r="T6">
-        <v>0.9991367367483415</v>
+        <v>0.9998594915299103</v>
       </c>
       <c r="U6">
-        <v>0.9979095243794118</v>
+        <v>0.99966114460408</v>
       </c>
       <c r="V6">
-        <v>1.001769743238262</v>
+        <v>1.000284833419588</v>
       </c>
       <c r="W6">
-        <v>0.9982021340364375</v>
+        <v>0.999708918716779</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000604457325854</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="D7">
-        <v>1.000604457325854</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="E7">
-        <v>0.9998112748307478</v>
+        <v>0.9982690403458234</v>
       </c>
       <c r="F7">
-        <v>1.000323532899877</v>
+        <v>1.00300782628242</v>
       </c>
       <c r="G7">
-        <v>1.000225350068565</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="H7">
-        <v>0.9994290341405946</v>
+        <v>0.9947614552089312</v>
       </c>
       <c r="I7">
-        <v>0.999125033092698</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="J7">
-        <v>0.9998173946887411</v>
+        <v>0.9984382574783888</v>
       </c>
       <c r="K7">
-        <v>1.000206848399205</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="L7">
-        <v>0.999125033092698</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="M7">
-        <v>1.000604457325854</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="N7">
-        <v>1.000604457325854</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="O7">
-        <v>1.000206848399205</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="P7">
-        <v>0.9996659407459515</v>
+        <v>0.9970125489373198</v>
       </c>
       <c r="Q7">
-        <v>1.000009061614976</v>
+        <v>1.000186701646255</v>
       </c>
       <c r="R7">
-        <v>0.9999787796059191</v>
+        <v>0.9997536575</v>
       </c>
       <c r="S7">
-        <v>0.9997143854408836</v>
+        <v>0.9974313794068209</v>
       </c>
       <c r="T7">
-        <v>0.9999787796059191</v>
+        <v>0.9997536575</v>
       </c>
       <c r="U7">
-        <v>0.9999369034121263</v>
+        <v>0.9993825032114558</v>
       </c>
       <c r="V7">
-        <v>1.000070414194872</v>
+        <v>1.000553177494237</v>
       </c>
       <c r="W7">
-        <v>0.9999428656807854</v>
+        <v>0.9994637999324569</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000047420499376</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="D8">
-        <v>1.000047420499376</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="E8">
-        <v>0.9999859551090933</v>
+        <v>0.9942278872726231</v>
       </c>
       <c r="F8">
-        <v>1.000023757523516</v>
+        <v>1.010062672482393</v>
       </c>
       <c r="G8">
-        <v>1.000017514546741</v>
+        <v>1.006502703327612</v>
       </c>
       <c r="H8">
-        <v>0.9999575259458077</v>
+        <v>0.9825300038760174</v>
       </c>
       <c r="I8">
-        <v>0.9999353169479763</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="J8">
-        <v>0.9999855162742552</v>
+        <v>0.994883595087829</v>
       </c>
       <c r="K8">
-        <v>1.000013752951584</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="L8">
-        <v>0.9999353169479763</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="M8">
-        <v>1.000047420499376</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="N8">
-        <v>1.000047420499376</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="O8">
-        <v>1.000013752951584</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="P8">
-        <v>0.9999745349497803</v>
+        <v>0.9900997957856823</v>
       </c>
       <c r="Q8">
-        <v>0.9999998540303388</v>
+        <v>1.000706329659358</v>
       </c>
       <c r="R8">
-        <v>0.9999988301329786</v>
+        <v>0.9991367367483415</v>
       </c>
       <c r="S8">
-        <v>0.9999783416695512</v>
+        <v>0.9914758262813294</v>
       </c>
       <c r="T8">
-        <v>0.9999988301329786</v>
+        <v>0.9991367367483415</v>
       </c>
       <c r="U8">
-        <v>0.9999956113770073</v>
+        <v>0.9979095243794118</v>
       </c>
       <c r="V8">
-        <v>1.000005973201481</v>
+        <v>1.001769743238262</v>
       </c>
       <c r="W8">
-        <v>0.9999958449747938</v>
+        <v>0.9982021340364375</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001002788579844</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="D9">
-        <v>1.001002788579844</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="E9">
-        <v>0.9996867038607322</v>
+        <v>0.9998112748307478</v>
       </c>
       <c r="F9">
-        <v>1.000537172378416</v>
+        <v>1.000323532899877</v>
       </c>
       <c r="G9">
-        <v>1.000373896833696</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="H9">
-        <v>0.9990521520533125</v>
+        <v>0.9994290341405946</v>
       </c>
       <c r="I9">
-        <v>0.9985473785823196</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="J9">
-        <v>0.9996971014683653</v>
+        <v>0.9998173946887411</v>
       </c>
       <c r="K9">
-        <v>1.000343820203205</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="L9">
-        <v>0.9985473785823196</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="M9">
-        <v>1.001002788579844</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="N9">
-        <v>1.001002788579844</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="O9">
-        <v>1.000343820203205</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="P9">
-        <v>0.9994455993927625</v>
+        <v>0.9996659407459515</v>
       </c>
       <c r="Q9">
-        <v>1.000015262031969</v>
+        <v>1.000009061614976</v>
       </c>
       <c r="R9">
-        <v>0.9999646624551231</v>
+        <v>0.9999787796059191</v>
       </c>
       <c r="S9">
-        <v>0.9995259675487524</v>
+        <v>0.9997143854408836</v>
       </c>
       <c r="T9">
-        <v>0.9999646624551231</v>
+        <v>0.9999787796059191</v>
       </c>
       <c r="U9">
-        <v>0.9998951728065253</v>
+        <v>0.9999369034121263</v>
       </c>
       <c r="V9">
-        <v>1.000116695961189</v>
+        <v>1.000070414194872</v>
       </c>
       <c r="W9">
-        <v>0.9999051267449864</v>
+        <v>0.9999428656807854</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.017458463967878</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="D10">
-        <v>1.017458463967878</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="E10">
-        <v>0.9941409938935658</v>
+        <v>0.9999859551090933</v>
       </c>
       <c r="F10">
-        <v>1.010215631453142</v>
+        <v>1.000023757523516</v>
       </c>
       <c r="G10">
-        <v>1.006597163777313</v>
+        <v>1.000017514546741</v>
       </c>
       <c r="H10">
-        <v>0.9822669480184898</v>
+        <v>0.9999575259458077</v>
       </c>
       <c r="I10">
-        <v>0.9726066070992733</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="J10">
-        <v>0.9948106991712363</v>
+        <v>0.9999855162742552</v>
       </c>
       <c r="K10">
-        <v>1.007300491859119</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="L10">
-        <v>0.9726066070992733</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="M10">
-        <v>1.017458463967878</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="N10">
-        <v>1.017458463967878</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="O10">
-        <v>1.007300491859119</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="P10">
-        <v>0.989953549479196</v>
+        <v>0.9999745349497803</v>
       </c>
       <c r="Q10">
-        <v>1.000720742876342</v>
+        <v>0.9999998540303388</v>
       </c>
       <c r="R10">
-        <v>0.9991218543087567</v>
+        <v>0.9999988301329786</v>
       </c>
       <c r="S10">
-        <v>0.991349364283986</v>
+        <v>0.9999783416695512</v>
       </c>
       <c r="T10">
-        <v>0.9991218543087568</v>
+        <v>0.9999988301329786</v>
       </c>
       <c r="U10">
-        <v>0.9978766392049591</v>
+        <v>0.9999956113770073</v>
       </c>
       <c r="V10">
-        <v>1.001793004157543</v>
+        <v>1.000005973201481</v>
       </c>
       <c r="W10">
-        <v>0.9981746249050021</v>
+        <v>0.9999958449747938</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.019296450969378</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="D11">
-        <v>1.019296450969378</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="E11">
-        <v>0.9937445342286846</v>
+        <v>0.9996867038607322</v>
       </c>
       <c r="F11">
-        <v>1.010820742688307</v>
+        <v>1.000537172378416</v>
       </c>
       <c r="G11">
-        <v>1.007243956402805</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="H11">
-        <v>0.9810706172623433</v>
+        <v>0.9990521520533125</v>
       </c>
       <c r="I11">
-        <v>0.9708684220146692</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="J11">
-        <v>0.9942185427922817</v>
+        <v>0.9996971014683653</v>
       </c>
       <c r="K11">
-        <v>1.007352984585793</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="L11">
-        <v>0.9708684220146692</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="M11">
-        <v>1.019296450969378</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="N11">
-        <v>1.019296450969378</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="O11">
-        <v>1.007352984585793</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="P11">
-        <v>0.9891107033002311</v>
+        <v>0.9994455993927625</v>
       </c>
       <c r="Q11">
-        <v>1.000548759407239</v>
+        <v>1.000015262031969</v>
       </c>
       <c r="R11">
-        <v>0.9991726191899466</v>
+        <v>0.9999646624551231</v>
       </c>
       <c r="S11">
-        <v>0.9906553136097157</v>
+        <v>0.9995259675487524</v>
       </c>
       <c r="T11">
-        <v>0.9991726191899466</v>
+        <v>0.9999646624551231</v>
       </c>
       <c r="U11">
-        <v>0.997815597949631</v>
+        <v>0.9998951728065253</v>
       </c>
       <c r="V11">
-        <v>1.00211176855358</v>
+        <v>1.000116695961189</v>
       </c>
       <c r="W11">
-        <v>0.9980770313680326</v>
+        <v>0.9999051267449864</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.005889715389473</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="D12">
-        <v>1.005889715389473</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="E12">
-        <v>0.9980329613052652</v>
+        <v>0.9941409938935658</v>
       </c>
       <c r="F12">
-        <v>1.003425960189472</v>
+        <v>1.010215631453142</v>
       </c>
       <c r="G12">
-        <v>1.00222352711579</v>
+        <v>1.006597163777313</v>
       </c>
       <c r="H12">
-        <v>0.9940466560105244</v>
+        <v>0.9822669480184898</v>
       </c>
       <c r="I12">
-        <v>0.9908082372421054</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="J12">
-        <v>0.9982473748000009</v>
+        <v>0.9948106991712363</v>
       </c>
       <c r="K12">
-        <v>1.002431889789474</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="L12">
-        <v>0.9908082372421054</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="M12">
-        <v>1.005889715389473</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="N12">
-        <v>1.005889715389473</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="O12">
-        <v>1.002431889789474</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="P12">
-        <v>0.9966200635157899</v>
+        <v>0.989953549479196</v>
       </c>
       <c r="Q12">
-        <v>1.00023242554737</v>
+        <v>1.000720742876342</v>
       </c>
       <c r="R12">
-        <v>0.9997099474736845</v>
+        <v>0.9991218543087567</v>
       </c>
       <c r="S12">
-        <v>0.997091029445615</v>
+        <v>0.991349364283986</v>
       </c>
       <c r="T12">
-        <v>0.9997099474736845</v>
+        <v>0.9991218543087568</v>
       </c>
       <c r="U12">
-        <v>0.9992907009315797</v>
+        <v>0.9978766392049591</v>
       </c>
       <c r="V12">
-        <v>1.000610503823159</v>
+        <v>1.001793004157543</v>
       </c>
       <c r="W12">
-        <v>0.9993882902302633</v>
+        <v>0.9981746249050021</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9964674025306119</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="D13">
-        <v>0.9964674025306119</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="E13">
-        <v>1.001144935647974</v>
+        <v>0.9937445342286846</v>
       </c>
       <c r="F13">
-        <v>0.9980195867313258</v>
+        <v>1.010820742688307</v>
       </c>
       <c r="G13">
-        <v>0.9986739051297188</v>
+        <v>1.007243956402805</v>
       </c>
       <c r="H13">
-        <v>1.003464634267669</v>
+        <v>0.9810706172623433</v>
       </c>
       <c r="I13">
-        <v>1.005331803881168</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="J13">
-        <v>1.001058463083542</v>
+        <v>0.9942185427922817</v>
       </c>
       <c r="K13">
-        <v>0.9986547095376633</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="L13">
-        <v>1.005331803881168</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="M13">
-        <v>0.9964674025306119</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="N13">
-        <v>0.9964674025306119</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="O13">
-        <v>0.9986547095376633</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="P13">
-        <v>1.001993256709416</v>
+        <v>0.9891107033002311</v>
       </c>
       <c r="Q13">
-        <v>0.9998998225928188</v>
+        <v>1.000548759407239</v>
       </c>
       <c r="R13">
-        <v>1.000151305316481</v>
+        <v>0.9991726191899466</v>
       </c>
       <c r="S13">
-        <v>1.001710483022269</v>
+        <v>0.9906553136097157</v>
       </c>
       <c r="T13">
-        <v>1.000151305316481</v>
+        <v>0.9991726191899466</v>
       </c>
       <c r="U13">
-        <v>1.000399712899354</v>
+        <v>0.997815597949631</v>
       </c>
       <c r="V13">
-        <v>0.999613250825606</v>
+        <v>1.00211176855358</v>
       </c>
       <c r="W13">
-        <v>1.000351930101209</v>
+        <v>0.9980770313680326</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0301398</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="D14">
-        <v>1.0301398</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="E14">
-        <v>0.9898757500000008</v>
+        <v>0.9980329613052652</v>
       </c>
       <c r="F14">
-        <v>1.017656099999998</v>
+        <v>1.003425960189472</v>
       </c>
       <c r="G14">
-        <v>1.0113912</v>
+        <v>1.00222352711579</v>
       </c>
       <c r="H14">
-        <v>0.9693574699999995</v>
+        <v>0.9940466560105244</v>
       </c>
       <c r="I14">
-        <v>0.9526597999999998</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="J14">
-        <v>0.9910433000000007</v>
+        <v>0.9982473748000009</v>
       </c>
       <c r="K14">
-        <v>1.012634</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="L14">
-        <v>0.9526597999999998</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="M14">
-        <v>1.0301398</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="N14">
-        <v>1.0301398</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="O14">
-        <v>1.012634</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="P14">
-        <v>0.9826468999999998</v>
+        <v>0.9966200635157899</v>
       </c>
       <c r="Q14">
-        <v>1.001254875</v>
+        <v>1.00023242554737</v>
       </c>
       <c r="R14">
-        <v>0.9984778666666667</v>
+        <v>0.9997099474736845</v>
       </c>
       <c r="S14">
-        <v>0.9850565166666668</v>
+        <v>0.997091029445615</v>
       </c>
       <c r="T14">
-        <v>0.9984778666666667</v>
+        <v>0.9997099474736845</v>
       </c>
       <c r="U14">
-        <v>0.9963273375000002</v>
+        <v>0.9992907009315797</v>
       </c>
       <c r="V14">
-        <v>1.00308983</v>
+        <v>1.000610503823159</v>
       </c>
       <c r="W14">
-        <v>0.9968446774999998</v>
+        <v>0.9993882902302633</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8759446600000002</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="D15">
-        <v>0.8759446600000002</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="E15">
-        <v>1.040237</v>
+        <v>1.001144935647974</v>
       </c>
       <c r="F15">
-        <v>0.93038935</v>
+        <v>0.9980195867313258</v>
       </c>
       <c r="G15">
-        <v>0.9534246199999999</v>
+        <v>0.9986739051297188</v>
       </c>
       <c r="H15">
-        <v>1.1217596</v>
+        <v>1.003464634267669</v>
       </c>
       <c r="I15">
-        <v>1.1873941</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="J15">
-        <v>1.0371642</v>
+        <v>1.001058463083542</v>
       </c>
       <c r="K15">
-        <v>0.9526597999999999</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="L15">
-        <v>1.1873941</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="M15">
-        <v>0.8759446600000002</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="N15">
-        <v>0.8759446600000002</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="O15">
-        <v>0.9526597999999999</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="P15">
-        <v>1.07002695</v>
+        <v>1.001993256709416</v>
       </c>
       <c r="Q15">
-        <v>0.9964484</v>
+        <v>0.9998998225928188</v>
       </c>
       <c r="R15">
-        <v>1.005332853333333</v>
+        <v>1.000151305316481</v>
       </c>
       <c r="S15">
-        <v>1.060096966666667</v>
+        <v>1.001710483022269</v>
       </c>
       <c r="T15">
-        <v>1.005332853333333</v>
+        <v>1.000151305316481</v>
       </c>
       <c r="U15">
-        <v>1.01405889</v>
+        <v>1.000399712899354</v>
       </c>
       <c r="V15">
-        <v>0.9864360440000001</v>
+        <v>0.999613250825606</v>
       </c>
       <c r="W15">
-        <v>1.01237166625</v>
+        <v>1.000351930101209</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1600,28 +1606,28 @@
         <v>1.0301398</v>
       </c>
       <c r="E16">
-        <v>0.9898757500000001</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="F16">
-        <v>1.0176561</v>
+        <v>1.017656099999998</v>
       </c>
       <c r="G16">
         <v>1.0113912</v>
       </c>
       <c r="H16">
-        <v>0.9693574700000001</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="I16">
-        <v>0.9526597999999999</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="J16">
-        <v>0.9910432999999998</v>
+        <v>0.9910433000000007</v>
       </c>
       <c r="K16">
         <v>1.012634</v>
       </c>
       <c r="L16">
-        <v>0.9526597999999999</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="M16">
         <v>1.0301398</v>
@@ -1633,7 +1639,7 @@
         <v>1.012634</v>
       </c>
       <c r="P16">
-        <v>0.9826469</v>
+        <v>0.9826468999999998</v>
       </c>
       <c r="Q16">
         <v>1.001254875</v>
@@ -1642,19 +1648,19 @@
         <v>0.9984778666666667</v>
       </c>
       <c r="S16">
-        <v>0.9850565166666666</v>
+        <v>0.9850565166666668</v>
       </c>
       <c r="T16">
         <v>0.9984778666666667</v>
       </c>
       <c r="U16">
-        <v>0.9963273375</v>
+        <v>0.9963273375000002</v>
       </c>
       <c r="V16">
         <v>1.00308983</v>
       </c>
       <c r="W16">
-        <v>0.9968446774999999</v>
+        <v>0.9968446774999998</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.91449344</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="D17">
-        <v>0.91449344</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="E17">
-        <v>1.0276467</v>
+        <v>1.040237</v>
       </c>
       <c r="F17">
-        <v>0.95220605</v>
+        <v>0.93038935</v>
       </c>
       <c r="G17">
-        <v>0.96791626</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="H17">
-        <v>1.0836591</v>
+        <v>1.1217596</v>
       </c>
       <c r="I17">
-        <v>1.1287105</v>
+        <v>1.1873941</v>
       </c>
       <c r="J17">
-        <v>1.0256339</v>
+        <v>1.0371642</v>
       </c>
       <c r="K17">
-        <v>0.96765335</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="L17">
-        <v>1.1287105</v>
+        <v>1.1873941</v>
       </c>
       <c r="M17">
-        <v>0.91449344</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="N17">
-        <v>0.91449344</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="O17">
-        <v>0.96765335</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="P17">
-        <v>1.048181925</v>
+        <v>1.07002695</v>
       </c>
       <c r="Q17">
-        <v>0.997650025</v>
+        <v>0.9964484</v>
       </c>
       <c r="R17">
-        <v>1.003619096666666</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="S17">
-        <v>1.04133685</v>
+        <v>1.060096966666667</v>
       </c>
       <c r="T17">
-        <v>1.003619096666666</v>
+        <v>1.005332853333333</v>
       </c>
       <c r="U17">
-        <v>1.0096259975</v>
+        <v>1.01405889</v>
       </c>
       <c r="V17">
-        <v>0.990599486</v>
+        <v>0.9864360440000001</v>
       </c>
       <c r="W17">
-        <v>1.0084899125</v>
+        <v>1.01237166625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010148663835616</v>
+        <v>1.0301398</v>
       </c>
       <c r="D18">
-        <v>1.010148663835616</v>
+        <v>1.0301398</v>
       </c>
       <c r="E18">
-        <v>0.9968587038356163</v>
+        <v>0.9898757500000001</v>
       </c>
       <c r="F18">
-        <v>1.005373668630137</v>
+        <v>1.0176561</v>
       </c>
       <c r="G18">
-        <v>1.003777639178082</v>
+        <v>1.0113912</v>
       </c>
       <c r="H18">
-        <v>0.9904967827397261</v>
+        <v>0.9693574700000001</v>
       </c>
       <c r="I18">
-        <v>0.98545166109589</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J18">
-        <v>0.996928424109589</v>
+        <v>0.9910432999999998</v>
       </c>
       <c r="K18">
-        <v>1.003384094246575</v>
+        <v>1.012634</v>
       </c>
       <c r="L18">
-        <v>0.98545166109589</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="M18">
-        <v>1.010148663835616</v>
+        <v>1.0301398</v>
       </c>
       <c r="N18">
-        <v>1.010148663835616</v>
+        <v>1.0301398</v>
       </c>
       <c r="O18">
-        <v>1.003384094246575</v>
+        <v>1.012634</v>
       </c>
       <c r="P18">
-        <v>0.9944178776712327</v>
+        <v>0.9826469</v>
       </c>
       <c r="Q18">
-        <v>1.000121399041096</v>
+        <v>1.001254875</v>
       </c>
       <c r="R18">
-        <v>0.9996614730593606</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="S18">
-        <v>0.995231486392694</v>
+        <v>0.9850565166666666</v>
       </c>
       <c r="T18">
-        <v>0.9996614730593606</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="U18">
-        <v>0.9989607807534244</v>
+        <v>0.9963273375</v>
       </c>
       <c r="V18">
-        <v>1.001198357369863</v>
+        <v>1.00308983</v>
       </c>
       <c r="W18">
-        <v>0.9990524547089039</v>
+        <v>0.9968446774999999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9570999831578948</v>
+        <v>0.91449344</v>
       </c>
       <c r="D19">
-        <v>0.9570999831578948</v>
+        <v>0.91449344</v>
       </c>
       <c r="E19">
-        <v>1.013731058947368</v>
+        <v>1.0276467</v>
       </c>
       <c r="F19">
-        <v>0.9763192363157892</v>
+        <v>0.95220605</v>
       </c>
       <c r="G19">
-        <v>0.9839333421052632</v>
+        <v>0.96791626</v>
       </c>
       <c r="H19">
-        <v>1.041547952631579</v>
+        <v>1.0836591</v>
       </c>
       <c r="I19">
-        <v>1.063849743157895</v>
+        <v>1.1287105</v>
       </c>
       <c r="J19">
-        <v>1.012890002105263</v>
+        <v>1.0256339</v>
       </c>
       <c r="K19">
-        <v>0.9842251800000001</v>
+        <v>0.96765335</v>
       </c>
       <c r="L19">
-        <v>1.063849743157895</v>
+        <v>1.1287105</v>
       </c>
       <c r="M19">
-        <v>0.9570999831578948</v>
+        <v>0.91449344</v>
       </c>
       <c r="N19">
-        <v>0.9570999831578948</v>
+        <v>0.91449344</v>
       </c>
       <c r="O19">
-        <v>0.9842251800000001</v>
+        <v>0.96765335</v>
       </c>
       <c r="P19">
-        <v>1.024037461578947</v>
+        <v>1.048181925</v>
       </c>
       <c r="Q19">
-        <v>0.9989781194736843</v>
+        <v>0.997650025</v>
       </c>
       <c r="R19">
-        <v>1.00172496877193</v>
+        <v>1.003619096666666</v>
       </c>
       <c r="S19">
-        <v>1.020601994035088</v>
+        <v>1.04133685</v>
       </c>
       <c r="T19">
-        <v>1.00172496877193</v>
+        <v>1.003619096666666</v>
       </c>
       <c r="U19">
-        <v>1.00472649131579</v>
+        <v>1.0096259975</v>
       </c>
       <c r="V19">
-        <v>0.9952011896842107</v>
+        <v>0.990599486</v>
       </c>
       <c r="W19">
-        <v>1.004199562302632</v>
+        <v>1.0084899125</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.008908904210527</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="D20">
-        <v>1.008908904210527</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="E20">
-        <v>0.9972457089473686</v>
+        <v>0.9968587038356163</v>
       </c>
       <c r="F20">
-        <v>1.004710254736842</v>
+        <v>1.005373668630137</v>
       </c>
       <c r="G20">
-        <v>1.003315456315789</v>
+        <v>1.003777639178082</v>
       </c>
       <c r="H20">
-        <v>0.9916676273684213</v>
+        <v>0.9904967827397261</v>
       </c>
       <c r="I20">
-        <v>0.987245854736842</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="J20">
-        <v>0.9973029705263158</v>
+        <v>0.996928424109589</v>
       </c>
       <c r="K20">
-        <v>1.002960087894737</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="L20">
-        <v>0.987245854736842</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="M20">
-        <v>1.008908904210527</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="N20">
-        <v>1.008908904210527</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="O20">
-        <v>1.002960087894737</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="P20">
-        <v>0.9951029713157893</v>
+        <v>0.9944178776712327</v>
       </c>
       <c r="Q20">
-        <v>1.000102898421053</v>
+        <v>1.000121399041096</v>
       </c>
       <c r="R20">
-        <v>0.9997049489473685</v>
+        <v>0.9996614730593606</v>
       </c>
       <c r="S20">
-        <v>0.9958172171929824</v>
+        <v>0.995231486392694</v>
       </c>
       <c r="T20">
-        <v>0.9997049489473685</v>
+        <v>0.9996614730593606</v>
       </c>
       <c r="U20">
-        <v>0.9990901389473685</v>
+        <v>0.9989607807534244</v>
       </c>
       <c r="V20">
-        <v>1.001053892</v>
+        <v>1.001198357369863</v>
       </c>
       <c r="W20">
-        <v>0.9991696080921053</v>
+        <v>0.9990524547089039</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9173777296412537</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="D21">
-        <v>0.9173777296412537</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="E21">
-        <v>1.02672831878448</v>
+        <v>1.013731058947368</v>
       </c>
       <c r="F21">
-        <v>0.9537878256957285</v>
+        <v>0.9763192363157892</v>
       </c>
       <c r="G21">
-        <v>0.968995417645736</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="H21">
-        <v>1.080880441330878</v>
+        <v>1.041547952631579</v>
       </c>
       <c r="I21">
-        <v>1.124442944769613</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="J21">
-        <v>1.024766309489313</v>
+        <v>1.012890002105263</v>
       </c>
       <c r="K21">
-        <v>0.9686981865604244</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="L21">
-        <v>1.124442944769613</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="M21">
-        <v>0.9173777296412537</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="N21">
-        <v>0.9173777296412537</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="O21">
-        <v>0.9686981865604244</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="P21">
-        <v>1.046570565665019</v>
+        <v>1.024037461578947</v>
       </c>
       <c r="Q21">
-        <v>0.9977132526724524</v>
+        <v>0.9989781194736843</v>
       </c>
       <c r="R21">
-        <v>1.00350628699043</v>
+        <v>1.00172496877193</v>
       </c>
       <c r="S21">
-        <v>1.039956483371506</v>
+        <v>1.020601994035088</v>
       </c>
       <c r="T21">
-        <v>1.00350628699043</v>
+        <v>1.00172496877193</v>
       </c>
       <c r="U21">
-        <v>1.009311794938943</v>
+        <v>1.00472649131579</v>
       </c>
       <c r="V21">
-        <v>0.9909249818794048</v>
+        <v>0.9952011896842107</v>
       </c>
       <c r="W21">
-        <v>1.008209646739678</v>
+        <v>1.004199562302632</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9778055018278902</v>
+        <v>1.008908904210527</v>
       </c>
       <c r="D22">
-        <v>0.9778055018278902</v>
+        <v>1.008908904210527</v>
       </c>
       <c r="E22">
-        <v>1.007111222442479</v>
+        <v>0.9972457089473686</v>
       </c>
       <c r="F22">
-        <v>0.987732865589501</v>
+        <v>1.004710254736842</v>
       </c>
       <c r="G22">
-        <v>0.9916862453123849</v>
+        <v>1.003315456315789</v>
       </c>
       <c r="H22">
-        <v>1.021517523486465</v>
+        <v>0.9916676273684213</v>
       </c>
       <c r="I22">
-        <v>1.033071397338449</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="J22">
-        <v>1.006667162313775</v>
+        <v>0.9973029705263158</v>
       </c>
       <c r="K22">
-        <v>0.9918147868316272</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="L22">
-        <v>1.033071397338449</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="M22">
-        <v>0.9778055018278902</v>
+        <v>1.008908904210527</v>
       </c>
       <c r="N22">
-        <v>0.9778055018278902</v>
+        <v>1.008908904210527</v>
       </c>
       <c r="O22">
-        <v>0.9918147868316272</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="P22">
-        <v>1.012443092085038</v>
+        <v>0.9951029713157893</v>
       </c>
       <c r="Q22">
-        <v>0.9994630046370533</v>
+        <v>1.000102898421053</v>
       </c>
       <c r="R22">
-        <v>1.000897228665989</v>
+        <v>0.9997049489473685</v>
       </c>
       <c r="S22">
-        <v>1.010665802204185</v>
+        <v>0.9958172171929824</v>
       </c>
       <c r="T22">
-        <v>1.000897228665989</v>
+        <v>0.9997049489473685</v>
       </c>
       <c r="U22">
-        <v>1.002450727110112</v>
+        <v>0.9990901389473685</v>
       </c>
       <c r="V22">
-        <v>0.9975216820536673</v>
+        <v>1.001053892</v>
       </c>
       <c r="W22">
-        <v>1.002175838142822</v>
+        <v>0.9991696080921053</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000904523457336</v>
+        <v>0.9173777296412537</v>
       </c>
       <c r="D23">
-        <v>1.000904523457336</v>
+        <v>0.9173777296412537</v>
       </c>
       <c r="E23">
-        <v>0.9997217417687106</v>
+        <v>1.02672831878448</v>
       </c>
       <c r="F23">
-        <v>1.000475262957306</v>
+        <v>0.9537878256957285</v>
       </c>
       <c r="G23">
-        <v>1.000336325498456</v>
+        <v>0.968995417645736</v>
       </c>
       <c r="H23">
-        <v>0.9991582473367512</v>
+        <v>1.080880441330878</v>
       </c>
       <c r="I23">
-        <v>0.9987123041058847</v>
+        <v>1.124442944769613</v>
       </c>
       <c r="J23">
-        <v>0.9997258790799392</v>
+        <v>1.024766309489313</v>
       </c>
       <c r="K23">
-        <v>1.000296024782096</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="L23">
-        <v>0.9987123041058847</v>
+        <v>1.124442944769613</v>
       </c>
       <c r="M23">
-        <v>1.000904523457336</v>
+        <v>0.9173777296412537</v>
       </c>
       <c r="N23">
-        <v>1.000904523457336</v>
+        <v>0.9173777296412537</v>
       </c>
       <c r="O23">
-        <v>1.000296024782096</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="P23">
-        <v>0.9995041644439903</v>
+        <v>1.046570565665019</v>
       </c>
       <c r="Q23">
-        <v>1.000008883275403</v>
+        <v>0.9977132526724524</v>
       </c>
       <c r="R23">
-        <v>0.9999709507817721</v>
+        <v>1.00350628699043</v>
       </c>
       <c r="S23">
-        <v>0.9995766902188971</v>
+        <v>1.039956483371506</v>
       </c>
       <c r="T23">
-        <v>0.9999709507817721</v>
+        <v>1.00350628699043</v>
       </c>
       <c r="U23">
-        <v>0.9999086485285067</v>
+        <v>1.009311794938943</v>
       </c>
       <c r="V23">
-        <v>1.000107823514272</v>
+        <v>0.9909249818794048</v>
       </c>
       <c r="W23">
-        <v>0.9999162886233099</v>
+        <v>1.008209646739678</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000220137397194</v>
+        <v>0.9778055018278902</v>
       </c>
       <c r="D24">
-        <v>1.000220137397194</v>
+        <v>0.9778055018278902</v>
       </c>
       <c r="E24">
-        <v>0.9999226385451718</v>
+        <v>1.007111222442479</v>
       </c>
       <c r="F24">
-        <v>1.000136254576551</v>
+        <v>0.987732865589501</v>
       </c>
       <c r="G24">
-        <v>1.000083939203447</v>
+        <v>0.9916862453123849</v>
       </c>
       <c r="H24">
-        <v>0.9997657980361905</v>
+        <v>1.021517523486465</v>
       </c>
       <c r="I24">
-        <v>0.9996364740418495</v>
+        <v>1.033071397338449</v>
       </c>
       <c r="J24">
-        <v>0.9999352894761144</v>
+        <v>1.006667162313775</v>
       </c>
       <c r="K24">
-        <v>1.000103377191377</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="L24">
-        <v>0.9996364740418495</v>
+        <v>1.033071397338449</v>
       </c>
       <c r="M24">
-        <v>1.000220137397194</v>
+        <v>0.9778055018278902</v>
       </c>
       <c r="N24">
-        <v>1.000220137397194</v>
+        <v>0.9778055018278902</v>
       </c>
       <c r="O24">
-        <v>1.000103377191377</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="P24">
-        <v>0.9998699256166133</v>
+        <v>1.012443092085038</v>
       </c>
       <c r="Q24">
-        <v>1.000013007868275</v>
+        <v>0.9994630046370533</v>
       </c>
       <c r="R24">
-        <v>0.9999866628768066</v>
+        <v>1.000897228665989</v>
       </c>
       <c r="S24">
-        <v>0.9998874965927994</v>
+        <v>1.010665802204185</v>
       </c>
       <c r="T24">
-        <v>0.9999866628768066</v>
+        <v>1.000897228665989</v>
       </c>
       <c r="U24">
-        <v>0.999970656793898</v>
+        <v>1.002450727110112</v>
       </c>
       <c r="V24">
-        <v>1.000020552914557</v>
+        <v>0.9975216820536673</v>
       </c>
       <c r="W24">
-        <v>0.9999754885584868</v>
+        <v>1.002175838142822</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.065425904135564</v>
+        <v>1.000904523457336</v>
       </c>
       <c r="D25">
-        <v>1.065425904135564</v>
+        <v>1.000904523457336</v>
       </c>
       <c r="E25">
-        <v>0.9791658402561939</v>
+        <v>0.9997217417687106</v>
       </c>
       <c r="F25">
-        <v>1.035887097117682</v>
+        <v>1.000475262957306</v>
       </c>
       <c r="G25">
-        <v>1.024479788244299</v>
+        <v>1.000336325498456</v>
       </c>
       <c r="H25">
-        <v>0.9369610312648234</v>
+        <v>0.9991582473367512</v>
       </c>
       <c r="I25">
-        <v>0.903179289747316</v>
+        <v>0.9987123041058847</v>
       </c>
       <c r="J25">
-        <v>0.9803195057208053</v>
+        <v>0.9997258790799392</v>
       </c>
       <c r="K25">
-        <v>1.023710879888909</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="L25">
-        <v>0.903179289747316</v>
+        <v>0.9987123041058847</v>
       </c>
       <c r="M25">
-        <v>1.065425904135564</v>
+        <v>1.000904523457336</v>
       </c>
       <c r="N25">
-        <v>1.065425904135564</v>
+        <v>1.000904523457336</v>
       </c>
       <c r="O25">
-        <v>1.023710879888909</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="P25">
-        <v>0.9634450848181124</v>
+        <v>0.9995041644439903</v>
       </c>
       <c r="Q25">
-        <v>1.001438360072551</v>
+        <v>1.000008883275403</v>
       </c>
       <c r="R25">
-        <v>0.9974386912572631</v>
+        <v>0.9999709507817721</v>
       </c>
       <c r="S25">
-        <v>0.9686853366308062</v>
+        <v>0.9995766902188971</v>
       </c>
       <c r="T25">
-        <v>0.9974386912572631</v>
+        <v>0.9999709507817721</v>
       </c>
       <c r="U25">
-        <v>0.9928704785069958</v>
+        <v>0.9999086485285067</v>
       </c>
       <c r="V25">
-        <v>1.007381563632709</v>
+        <v>1.000107823514272</v>
       </c>
       <c r="W25">
-        <v>0.993641167046949</v>
+        <v>0.9999162886233099</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.01712833877372</v>
+        <v>1.000220137397194</v>
       </c>
       <c r="D26">
-        <v>1.01712833877372</v>
+        <v>1.000220137397194</v>
       </c>
       <c r="E26">
-        <v>0.9943730471157932</v>
+        <v>0.9999226385451718</v>
       </c>
       <c r="F26">
-        <v>1.009763624941987</v>
+        <v>1.000136254576551</v>
       </c>
       <c r="G26">
-        <v>1.006446150929852</v>
+        <v>1.000083939203447</v>
       </c>
       <c r="H26">
-        <v>0.98297127623034</v>
+        <v>0.9997657980361905</v>
       </c>
       <c r="I26">
-        <v>0.9737550851655731</v>
+        <v>0.9996364740418495</v>
       </c>
       <c r="J26">
-        <v>0.9948835981442403</v>
+        <v>0.9999352894761144</v>
       </c>
       <c r="K26">
-        <v>1.006768384060493</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="L26">
-        <v>0.9737550851655731</v>
+        <v>0.9996364740418495</v>
       </c>
       <c r="M26">
-        <v>1.01712833877372</v>
+        <v>1.000220137397194</v>
       </c>
       <c r="N26">
-        <v>1.01712833877372</v>
+        <v>1.000220137397194</v>
       </c>
       <c r="O26">
-        <v>1.006768384060493</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="P26">
-        <v>0.9902617346130331</v>
+        <v>0.9998699256166133</v>
       </c>
       <c r="Q26">
-        <v>1.000570715588143</v>
+        <v>1.000013007868275</v>
       </c>
       <c r="R26">
-        <v>0.9992172693332622</v>
+        <v>0.9999866628768066</v>
       </c>
       <c r="S26">
-        <v>0.991632172113953</v>
+        <v>0.9998874965927994</v>
       </c>
       <c r="T26">
-        <v>0.9992172693332622</v>
+        <v>0.9999866628768066</v>
       </c>
       <c r="U26">
-        <v>0.998006213778895</v>
+        <v>0.999970656793898</v>
       </c>
       <c r="V26">
-        <v>1.00183063877786</v>
+        <v>1.000020552914557</v>
       </c>
       <c r="W26">
-        <v>0.99826118817025</v>
+        <v>0.9999754885584868</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.001881449358863</v>
+        <v>1.065425904135564</v>
       </c>
       <c r="D27">
-        <v>1.001881449358863</v>
+        <v>1.065425904135564</v>
       </c>
       <c r="E27">
-        <v>0.9994029320508424</v>
+        <v>0.9791658402561939</v>
       </c>
       <c r="F27">
-        <v>1.001027625541872</v>
+        <v>1.035887097117682</v>
       </c>
       <c r="G27">
-        <v>1.000703540764506</v>
+        <v>1.024479788244299</v>
       </c>
       <c r="H27">
-        <v>0.998193440110074</v>
+        <v>0.9369610312648234</v>
       </c>
       <c r="I27">
-        <v>0.9972263944468246</v>
+        <v>0.903179289747316</v>
       </c>
       <c r="J27">
-        <v>0.9994336170674225</v>
+        <v>0.9803195057208053</v>
       </c>
       <c r="K27">
-        <v>1.000675183502722</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="L27">
-        <v>0.9972263944468246</v>
+        <v>0.903179289747316</v>
       </c>
       <c r="M27">
-        <v>1.001881449358863</v>
+        <v>1.065425904135564</v>
       </c>
       <c r="N27">
-        <v>1.001881449358863</v>
+        <v>1.065425904135564</v>
       </c>
       <c r="O27">
-        <v>1.000675183502722</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="P27">
-        <v>0.9989507889747733</v>
+        <v>0.9634450848181124</v>
       </c>
       <c r="Q27">
-        <v>1.000039057776782</v>
+        <v>1.001438360072551</v>
       </c>
       <c r="R27">
-        <v>0.9999276757694701</v>
+        <v>0.9974386912572631</v>
       </c>
       <c r="S27">
-        <v>0.999101503333463</v>
+        <v>0.9686853366308062</v>
       </c>
       <c r="T27">
-        <v>0.9999276757694701</v>
+        <v>0.9974386912572631</v>
       </c>
       <c r="U27">
-        <v>0.9997964898398131</v>
+        <v>0.9928704785069958</v>
       </c>
       <c r="V27">
-        <v>1.000213481743623</v>
+        <v>1.007381563632709</v>
       </c>
       <c r="W27">
-        <v>0.9998180228553908</v>
+        <v>0.993641167046949</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.998237370800296</v>
+        <v>1.01712833877372</v>
       </c>
       <c r="D28">
-        <v>0.998237370800296</v>
+        <v>1.01712833877372</v>
       </c>
       <c r="E28">
-        <v>1.000612443736455</v>
+        <v>0.9943730471157932</v>
       </c>
       <c r="F28">
-        <v>0.9989239768523691</v>
+        <v>1.009763624941987</v>
       </c>
       <c r="G28">
-        <v>0.9993294088065403</v>
+        <v>1.006446150929852</v>
       </c>
       <c r="H28">
-        <v>1.001853992767916</v>
+        <v>0.98297127623034</v>
       </c>
       <c r="I28">
-        <v>1.002874413228988</v>
+        <v>0.9737550851655731</v>
       </c>
       <c r="J28">
-        <v>1.000519567015577</v>
+        <v>0.9948835981442403</v>
       </c>
       <c r="K28">
-        <v>0.9991949611581425</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="L28">
-        <v>1.002874413228988</v>
+        <v>0.9737550851655731</v>
       </c>
       <c r="M28">
-        <v>0.998237370800296</v>
+        <v>1.01712833877372</v>
       </c>
       <c r="N28">
-        <v>0.998237370800296</v>
+        <v>1.01712833877372</v>
       </c>
       <c r="O28">
-        <v>0.9991949611581425</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="P28">
-        <v>1.001034687193565</v>
+        <v>0.9902617346130331</v>
       </c>
       <c r="Q28">
-        <v>0.999903702447299</v>
+        <v>1.000570715588143</v>
       </c>
       <c r="R28">
-        <v>1.000102248395809</v>
+        <v>0.9992172693332622</v>
       </c>
       <c r="S28">
-        <v>1.000893939374529</v>
+        <v>0.991632172113953</v>
       </c>
       <c r="T28">
-        <v>1.000102248395809</v>
+        <v>0.9992172693332622</v>
       </c>
       <c r="U28">
-        <v>1.000229797230971</v>
+        <v>0.998006213778895</v>
       </c>
       <c r="V28">
-        <v>0.9998313119448357</v>
+        <v>1.00183063877786</v>
       </c>
       <c r="W28">
-        <v>1.000193266795786</v>
+        <v>0.99826118817025</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="D29">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="E29">
+        <v>0.9994029320508424</v>
+      </c>
+      <c r="F29">
+        <v>1.001027625541872</v>
+      </c>
+      <c r="G29">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="H29">
+        <v>0.998193440110074</v>
+      </c>
+      <c r="I29">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="J29">
+        <v>0.9994336170674225</v>
+      </c>
+      <c r="K29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="L29">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="M29">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="N29">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="O29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="P29">
+        <v>0.9989507889747733</v>
+      </c>
+      <c r="Q29">
+        <v>1.000039057776782</v>
+      </c>
+      <c r="R29">
+        <v>0.9999276757694701</v>
+      </c>
+      <c r="S29">
+        <v>0.999101503333463</v>
+      </c>
+      <c r="T29">
+        <v>0.9999276757694701</v>
+      </c>
+      <c r="U29">
+        <v>0.9997964898398131</v>
+      </c>
+      <c r="V29">
+        <v>1.000213481743623</v>
+      </c>
+      <c r="W29">
+        <v>0.9998180228553908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="D30">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="E30">
+        <v>1.000612443736455</v>
+      </c>
+      <c r="F30">
+        <v>0.9989239768523691</v>
+      </c>
+      <c r="G30">
+        <v>0.9993294088065403</v>
+      </c>
+      <c r="H30">
+        <v>1.001853992767916</v>
+      </c>
+      <c r="I30">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="J30">
+        <v>1.000519567015577</v>
+      </c>
+      <c r="K30">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="L30">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="M30">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="N30">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="O30">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="P30">
+        <v>1.001034687193565</v>
+      </c>
+      <c r="Q30">
+        <v>0.999903702447299</v>
+      </c>
+      <c r="R30">
+        <v>1.000102248395809</v>
+      </c>
+      <c r="S30">
+        <v>1.000893939374529</v>
+      </c>
+      <c r="T30">
+        <v>1.000102248395809</v>
+      </c>
+      <c r="U30">
+        <v>1.000229797230971</v>
+      </c>
+      <c r="V30">
+        <v>0.9998313119448357</v>
+      </c>
+      <c r="W30">
+        <v>1.000193266795786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9920514845653239</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9920514845653239</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.002642346765355</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9954026816081348</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9970018749264977</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.007997016724701</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.0123409737376</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.002367817884039</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9967579196442231</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.0123409737376</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9920514845653239</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9920514845653239</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9967579196442231</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.004549446690911</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9997001332047889</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000383459315715</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.003913746715726</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000383459315716</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000948181178125</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9991688418555651</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000820264481984</v>
       </c>
     </row>
